--- a/src/main/python/lenteles/rez.xlsx
+++ b/src/main/python/lenteles/rez.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="487">
-  <si>
-    <t>Pav.</t>
-  </si>
-  <si>
-    <t>Sku</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="488">
+  <si>
+    <t>FOTO</t>
+  </si>
+  <si>
+    <t>SKU</t>
   </si>
   <si>
     <t>FF prekės ID</t>
@@ -37,6 +37,9 @@
     <t>Savikaina</t>
   </si>
   <si>
+    <t>MarkUP</t>
+  </si>
+  <si>
     <t>Valiuta</t>
   </si>
   <si>
@@ -49,6 +52,12 @@
     <t>Galutinis likutis</t>
   </si>
   <si>
+    <t>Konkurentų kiekis</t>
+  </si>
+  <si>
+    <t>Pard. proc.</t>
+  </si>
+  <si>
     <t>FF pradinė kaina</t>
   </si>
   <si>
@@ -64,15 +73,6 @@
     <t>Url</t>
   </si>
   <si>
-    <t>Konkurentų kiekis</t>
-  </si>
-  <si>
-    <t>Pard. proc.</t>
-  </si>
-  <si>
-    <t>MarkUP</t>
-  </si>
-  <si>
     <t>FRG0688746</t>
   </si>
   <si>
@@ -94,6 +94,9 @@
     <t>2.0</t>
   </si>
   <si>
+    <t>0.0</t>
+  </si>
+  <si>
     <t>975.0</t>
   </si>
   <si>
@@ -103,9 +106,6 @@
     <t>585.0</t>
   </si>
   <si>
-    <t>0.0</t>
-  </si>
-  <si>
     <t>FRG518533</t>
   </si>
   <si>
@@ -424,6 +424,9 @@
     <t>17.0</t>
   </si>
   <si>
+    <t>10.53</t>
+  </si>
+  <si>
     <t>430.0</t>
   </si>
   <si>
@@ -433,9 +436,6 @@
     <t>https://www.farfetch.com//de/shopping/men/salvatore-ferragamo-cube-sneakers-item-15321020.aspx?storeid=10952</t>
   </si>
   <si>
-    <t>10.53</t>
-  </si>
-  <si>
     <t>FRG692392</t>
   </si>
   <si>
@@ -445,12 +445,12 @@
     <t>216.5</t>
   </si>
   <si>
+    <t>33.33</t>
+  </si>
+  <si>
     <t>540.0</t>
   </si>
   <si>
-    <t>33.33</t>
-  </si>
-  <si>
     <t>FRG693049</t>
   </si>
   <si>
@@ -562,12 +562,12 @@
     <t>236.64481</t>
   </si>
   <si>
+    <t>10.34</t>
+  </si>
+  <si>
     <t>590.0</t>
   </si>
   <si>
-    <t>10.34</t>
-  </si>
-  <si>
     <t>FRG704006</t>
   </si>
   <si>
@@ -610,12 +610,12 @@
     <t>27.0</t>
   </si>
   <si>
+    <t>3.57</t>
+  </si>
+  <si>
     <t>501.0</t>
   </si>
   <si>
-    <t>3.57</t>
-  </si>
-  <si>
     <t>FRG704655</t>
   </si>
   <si>
@@ -697,7 +697,10 @@
     <t>180.11</t>
   </si>
   <si>
-    <t>https://www.farfetch.com//de/shopping/men/salvatore-ferragamo-loafer-mit-vara-schnalle-item-14147966.aspx?storeid=9053</t>
+    <t>ae</t>
+  </si>
+  <si>
+    <t>https://www.farfetch.com//de/shopping/men/salvatore-ferragamo-loafer-mit-vara-schnalle-item-14147966.aspx?storeid=12704</t>
   </si>
   <si>
     <t>FRG709571</t>
@@ -805,12 +808,15 @@
     <t>172.58</t>
   </si>
   <si>
-    <t>https://www.farfetch.com//de/shopping/men/salvatore-ferragamo-sneakers-mit-logo-print-item-14266362.aspx?storeid=9796</t>
-  </si>
-  <si>
     <t>66.67</t>
   </si>
   <si>
+    <t>pl</t>
+  </si>
+  <si>
+    <t>https://www.farfetch.com//de/shopping/men/salvatore-ferragamo-sneakers-mit-logo-print-item-14266362.aspx?storeid=9462</t>
+  </si>
+  <si>
     <t>FRG719159</t>
   </si>
   <si>
@@ -1018,7 +1024,7 @@
     <t>216.565</t>
   </si>
   <si>
-    <t>https://www.farfetch.com//de/shopping/men/salvatore-ferragamo-rolo-loafer-item-15321027.aspx?storeid=10136</t>
+    <t>https://www.farfetch.com//de/shopping/men/salvatore-ferragamo-rolo-loafer-item-15321027.aspx?storeid=9462</t>
   </si>
   <si>
     <t>FRG732468</t>
@@ -1060,9 +1066,6 @@
     <t>181.095</t>
   </si>
   <si>
-    <t>https://www.farfetch.com//de/shopping/men/salvatore-ferragamo-loafer-mit-gancini-schnalle-item-15461608.aspx?storeid=10136</t>
-  </si>
-  <si>
     <t>FRG732948</t>
   </si>
   <si>
@@ -1165,7 +1168,7 @@
     <t>15642778</t>
   </si>
   <si>
-    <t>https://www.farfetch.com//de/shopping/men/salvatore-ferragamo-sneakers-mit-gancini-pragung-item-15642778.aspx?storeid=10136</t>
+    <t>https://www.farfetch.com//de/shopping/men/salvatore-ferragamo-sneakers-mit-gancini-pragung-item-15642778.aspx?storeid=10952</t>
   </si>
   <si>
     <t>FRG734931</t>
@@ -1195,7 +1198,7 @@
     <t>572.0</t>
   </si>
   <si>
-    <t>https://www.farfetch.com//de/shopping/men/salvatore-ferragamo-schnurschuhe-mit-profilsohle-item-15461617.aspx?storeid=9568</t>
+    <t>https://www.farfetch.com//de/shopping/men/salvatore-ferragamo-schnurschuhe-mit-profilsohle-item-15461617.aspx?storeid=10952</t>
   </si>
   <si>
     <t>FRG735236</t>
@@ -1303,12 +1306,12 @@
     <t>180.04556</t>
   </si>
   <si>
+    <t>20.0</t>
+  </si>
+  <si>
     <t>467.0</t>
   </si>
   <si>
-    <t>20.0</t>
-  </si>
-  <si>
     <t>FRG741213</t>
   </si>
   <si>
@@ -1375,7 +1378,7 @@
     <t>217.0</t>
   </si>
   <si>
-    <t>https://www.farfetch.com//de/shopping/men/salvatore-ferragamo-groove-gancini-pantoletten-item-16147573.aspx?storeid=10952</t>
+    <t>https://www.farfetch.com//de/shopping/men/salvatore-ferragamo-groove-gancini-pantoletten-item-16147573.aspx?storeid=10207</t>
   </si>
   <si>
     <t>FRG742175</t>
@@ -1411,12 +1414,12 @@
     <t>252.58</t>
   </si>
   <si>
+    <t>6.67</t>
+  </si>
+  <si>
     <t>655.0</t>
   </si>
   <si>
-    <t>6.67</t>
-  </si>
-  <si>
     <t>FRG743034</t>
   </si>
   <si>
@@ -1426,13 +1429,13 @@
     <t>216.49833</t>
   </si>
   <si>
+    <t>14.29</t>
+  </si>
+  <si>
     <t>562.0</t>
   </si>
   <si>
     <t>https://www.farfetch.com//de/shopping/men/salvatore-ferragamo-sneakers-mit-gancini-logo-item-16200364.aspx?storeid=10136</t>
-  </si>
-  <si>
-    <t>14.29</t>
   </si>
   <si>
     <t>FRG743128</t>
@@ -1888,7 +1891,7 @@
         <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -1904,33 +1907,34 @@
       <c r="G2" t="s">
         <v>22</v>
       </c>
-      <c r="I2" t="s">
+      <c r="H2" s="2"/>
+      <c r="J2" t="s">
         <v>23</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>24</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>25</v>
       </c>
-      <c r="L2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" t="s">
         <v>27</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2">
-        <v>0</v>
-      </c>
-      <c r="R2" s="2" t="s">
+      <c r="Q2" t="s">
         <v>29</v>
       </c>
+      <c r="S2" s="2"/>
       <c r="T2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="U2">
         <f>COUNTIFS(D2:B1048576,"Aktyvus")</f>
@@ -1950,33 +1954,34 @@
       <c r="G3" t="s">
         <v>33</v>
       </c>
-      <c r="I3" t="s">
+      <c r="H3" s="2"/>
+      <c r="J3" t="s">
         <v>34</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>35</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>36</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" t="s">
         <v>35</v>
       </c>
-      <c r="M3" t="s">
+      <c r="P3" t="s">
         <v>35</v>
       </c>
-      <c r="N3" t="s">
+      <c r="Q3" t="s">
         <v>35</v>
       </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2">
-        <v>0</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="S3" s="2"/>
       <c r="T3" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="U3">
         <f>COUNTIFS(D2:B1048576,"Neaktyvus")</f>
@@ -1996,33 +2001,34 @@
       <c r="G4" t="s">
         <v>39</v>
       </c>
-      <c r="I4" t="s">
+      <c r="H4" s="2"/>
+      <c r="J4" t="s">
         <v>23</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>24</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>40</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" t="s">
         <v>41</v>
       </c>
-      <c r="M4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="P4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q4" t="s">
         <v>42</v>
       </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2">
-        <v>0</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="S4" s="2"/>
       <c r="T4" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="U4">
         <f>COUNTIFS(D2:B1048576,"Konkurentu")</f>
@@ -2042,31 +2048,32 @@
       <c r="G5" t="s">
         <v>45</v>
       </c>
-      <c r="I5" t="s">
+      <c r="H5" s="2"/>
+      <c r="J5" t="s">
         <v>23</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>35</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>46</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O5" t="s">
         <v>35</v>
       </c>
-      <c r="M5" t="s">
+      <c r="P5" t="s">
         <v>35</v>
       </c>
-      <c r="N5" t="s">
+      <c r="Q5" t="s">
         <v>35</v>
       </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2">
-        <v>0</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="S5" s="2"/>
     </row>
     <row r="6" spans="1:21">
       <c r="B6" t="s">
@@ -2081,31 +2088,32 @@
       <c r="G6" t="s">
         <v>50</v>
       </c>
-      <c r="I6" t="s">
+      <c r="H6" s="2"/>
+      <c r="J6" t="s">
         <v>51</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>52</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>53</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O6" t="s">
         <v>54</v>
       </c>
-      <c r="M6" t="s">
+      <c r="P6" t="s">
         <v>55</v>
       </c>
-      <c r="N6" t="s">
+      <c r="Q6" t="s">
         <v>54</v>
       </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2">
-        <v>0</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="S6" s="2"/>
     </row>
     <row r="7" spans="1:21">
       <c r="B7" t="s">
@@ -2120,31 +2128,32 @@
       <c r="G7" t="s">
         <v>58</v>
       </c>
-      <c r="I7" t="s">
+      <c r="H7" s="2"/>
+      <c r="J7" t="s">
         <v>51</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>52</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>59</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O7" t="s">
         <v>60</v>
       </c>
-      <c r="M7" t="s">
-        <v>61</v>
-      </c>
-      <c r="N7" t="s">
+      <c r="P7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q7" t="s">
         <v>60</v>
       </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2">
-        <v>0</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="S7" s="2"/>
     </row>
     <row r="8" spans="1:21">
       <c r="B8" t="s">
@@ -2159,31 +2168,32 @@
       <c r="G8" t="s">
         <v>64</v>
       </c>
-      <c r="I8" t="s">
+      <c r="H8" s="2"/>
+      <c r="J8" t="s">
         <v>51</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>35</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>65</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O8" t="s">
         <v>35</v>
       </c>
-      <c r="M8" t="s">
+      <c r="P8" t="s">
         <v>35</v>
       </c>
-      <c r="N8" t="s">
+      <c r="Q8" t="s">
         <v>35</v>
       </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2">
-        <v>0</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="S8" s="2"/>
     </row>
     <row r="9" spans="1:21">
       <c r="B9" t="s">
@@ -2198,31 +2208,32 @@
       <c r="G9" t="s">
         <v>68</v>
       </c>
-      <c r="I9" t="s">
+      <c r="H9" s="2"/>
+      <c r="J9" t="s">
         <v>51</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>35</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>69</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O9" t="s">
         <v>35</v>
       </c>
-      <c r="M9" t="s">
+      <c r="P9" t="s">
         <v>35</v>
       </c>
-      <c r="N9" t="s">
+      <c r="Q9" t="s">
         <v>35</v>
       </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2">
-        <v>0</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="S9" s="2"/>
     </row>
     <row r="10" spans="1:21">
       <c r="B10" t="s">
@@ -2237,31 +2248,32 @@
       <c r="G10" t="s">
         <v>72</v>
       </c>
-      <c r="I10" t="s">
+      <c r="H10" s="2"/>
+      <c r="J10" t="s">
         <v>51</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>52</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>73</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O10" t="s">
         <v>74</v>
       </c>
-      <c r="M10" t="s">
-        <v>61</v>
-      </c>
-      <c r="N10" t="s">
+      <c r="P10" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q10" t="s">
         <v>74</v>
       </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2">
-        <v>0</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="S10" s="2"/>
     </row>
     <row r="11" spans="1:21">
       <c r="B11" t="s">
@@ -2276,31 +2288,32 @@
       <c r="G11" t="s">
         <v>77</v>
       </c>
-      <c r="I11" t="s">
+      <c r="H11" s="2"/>
+      <c r="J11" t="s">
         <v>78</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>52</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>79</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O11" t="s">
         <v>80</v>
       </c>
-      <c r="M11" t="s">
-        <v>61</v>
-      </c>
-      <c r="N11" t="s">
+      <c r="P11" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q11" t="s">
         <v>80</v>
       </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2">
-        <v>0</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="S11" s="2"/>
     </row>
     <row r="12" spans="1:21">
       <c r="B12" t="s">
@@ -2315,31 +2328,32 @@
       <c r="G12" t="s">
         <v>83</v>
       </c>
-      <c r="I12" t="s">
+      <c r="H12" s="2"/>
+      <c r="J12" t="s">
         <v>51</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>52</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>59</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O12" t="s">
         <v>84</v>
       </c>
-      <c r="M12" t="s">
-        <v>61</v>
-      </c>
-      <c r="N12" t="s">
+      <c r="P12" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q12" t="s">
         <v>84</v>
       </c>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2">
-        <v>0</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="S12" s="2"/>
     </row>
     <row r="13" spans="1:21">
       <c r="B13" t="s">
@@ -2354,31 +2368,32 @@
       <c r="G13" t="s">
         <v>87</v>
       </c>
-      <c r="I13" t="s">
+      <c r="H13" s="2"/>
+      <c r="J13" t="s">
         <v>51</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>52</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>88</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O13" t="s">
         <v>84</v>
       </c>
-      <c r="M13" t="s">
-        <v>61</v>
-      </c>
-      <c r="N13" t="s">
+      <c r="P13" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q13" t="s">
         <v>84</v>
       </c>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2">
-        <v>0</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="S13" s="2"/>
     </row>
     <row r="14" spans="1:21">
       <c r="B14" t="s">
@@ -2393,31 +2408,32 @@
       <c r="G14" t="s">
         <v>91</v>
       </c>
-      <c r="I14" t="s">
+      <c r="H14" s="2"/>
+      <c r="J14" t="s">
         <v>51</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>52</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>73</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" s="2">
+        <v>0</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O14" t="s">
         <v>54</v>
       </c>
-      <c r="M14" t="s">
-        <v>61</v>
-      </c>
-      <c r="N14" t="s">
+      <c r="P14" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q14" t="s">
         <v>54</v>
       </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2">
-        <v>0</v>
-      </c>
-      <c r="R14" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="S14" s="2"/>
     </row>
     <row r="15" spans="1:21">
       <c r="B15" t="s">
@@ -2432,31 +2448,32 @@
       <c r="G15" t="s">
         <v>94</v>
       </c>
-      <c r="I15" t="s">
+      <c r="H15" s="2"/>
+      <c r="J15" t="s">
         <v>23</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>35</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>95</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O15" t="s">
         <v>35</v>
       </c>
-      <c r="M15" t="s">
+      <c r="P15" t="s">
         <v>35</v>
       </c>
-      <c r="N15" t="s">
+      <c r="Q15" t="s">
         <v>35</v>
       </c>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2">
-        <v>0</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="S15" s="2"/>
     </row>
     <row r="16" spans="1:21">
       <c r="B16" t="s">
@@ -2471,33 +2488,34 @@
       <c r="G16" t="s">
         <v>98</v>
       </c>
-      <c r="I16" t="s">
+      <c r="H16" s="2"/>
+      <c r="J16" t="s">
         <v>51</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>52</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>99</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" s="2">
+        <v>0</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O16" t="s">
         <v>60</v>
       </c>
-      <c r="M16" t="s">
-        <v>61</v>
-      </c>
-      <c r="N16" t="s">
+      <c r="P16" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q16" t="s">
         <v>60</v>
       </c>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2">
-        <v>0</v>
-      </c>
-      <c r="R16" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="2:18">
+      <c r="S16" s="2"/>
+    </row>
+    <row r="17" spans="2:19">
       <c r="B17" t="s">
         <v>100</v>
       </c>
@@ -2510,33 +2528,34 @@
       <c r="G17" t="s">
         <v>102</v>
       </c>
-      <c r="I17" t="s">
+      <c r="H17" s="2"/>
+      <c r="J17" t="s">
         <v>51</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>52</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>99</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" s="2">
+        <v>0</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O17" t="s">
         <v>60</v>
       </c>
-      <c r="M17" t="s">
-        <v>61</v>
-      </c>
-      <c r="N17" t="s">
+      <c r="P17" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q17" t="s">
         <v>60</v>
       </c>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2">
-        <v>0</v>
-      </c>
-      <c r="R17" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="2:18">
+      <c r="S17" s="2"/>
+    </row>
+    <row r="18" spans="2:19">
       <c r="B18" t="s">
         <v>103</v>
       </c>
@@ -2555,38 +2574,41 @@
       <c r="G18" t="s">
         <v>106</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="2">
+        <v>2.3</v>
+      </c>
+      <c r="I18" t="s">
         <v>107</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>51</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>52</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>108</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" s="2">
+        <v>0</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O18" t="s">
         <v>109</v>
       </c>
-      <c r="M18" t="s">
-        <v>61</v>
-      </c>
-      <c r="N18" t="s">
+      <c r="P18" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q18" t="s">
         <v>109</v>
       </c>
-      <c r="P18" s="2" t="s">
+      <c r="S18" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="Q18" s="2">
-        <v>0</v>
-      </c>
-      <c r="R18" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="2:18">
+    </row>
+    <row r="19" spans="2:19">
       <c r="B19" t="s">
         <v>111</v>
       </c>
@@ -2605,41 +2627,44 @@
       <c r="G19" t="s">
         <v>114</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="2">
+        <v>2.65</v>
+      </c>
+      <c r="I19" t="s">
         <v>107</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>51</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>52</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>115</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" s="2">
+        <v>84</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O19" t="s">
         <v>54</v>
       </c>
-      <c r="M19" t="s">
-        <v>61</v>
-      </c>
-      <c r="N19" t="s">
+      <c r="P19" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q19" t="s">
         <v>54</v>
       </c>
-      <c r="O19" t="s">
+      <c r="R19" t="s">
         <v>116</v>
       </c>
-      <c r="P19" s="2" t="s">
+      <c r="S19" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="Q19" s="2">
-        <v>76</v>
-      </c>
-      <c r="R19" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="2:18">
+    </row>
+    <row r="20" spans="2:19">
       <c r="B20" t="s">
         <v>118</v>
       </c>
@@ -2652,33 +2677,34 @@
       <c r="G20" t="s">
         <v>120</v>
       </c>
-      <c r="I20" t="s">
+      <c r="H20" s="2"/>
+      <c r="J20" t="s">
         <v>51</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>52</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>121</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" s="2">
+        <v>0</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O20" t="s">
         <v>84</v>
       </c>
-      <c r="M20" t="s">
-        <v>61</v>
-      </c>
-      <c r="N20" t="s">
+      <c r="P20" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q20" t="s">
         <v>84</v>
       </c>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2">
-        <v>0</v>
-      </c>
-      <c r="R20" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="2:18">
+      <c r="S20" s="2"/>
+    </row>
+    <row r="21" spans="2:19">
       <c r="B21" t="s">
         <v>122</v>
       </c>
@@ -2691,33 +2717,34 @@
       <c r="G21" t="s">
         <v>124</v>
       </c>
-      <c r="I21" t="s">
+      <c r="H21" s="2"/>
+      <c r="J21" t="s">
         <v>51</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>52</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>125</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" s="2">
+        <v>0</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O21" t="s">
         <v>74</v>
       </c>
-      <c r="M21" t="s">
-        <v>61</v>
-      </c>
-      <c r="N21" t="s">
+      <c r="P21" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q21" t="s">
         <v>74</v>
       </c>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2">
-        <v>0</v>
-      </c>
-      <c r="R21" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="2:18">
+      <c r="S21" s="2"/>
+    </row>
+    <row r="22" spans="2:19">
       <c r="B22" t="s">
         <v>126</v>
       </c>
@@ -2736,41 +2763,44 @@
       <c r="G22" t="s">
         <v>128</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="2">
+        <v>2.75</v>
+      </c>
+      <c r="I22" t="s">
         <v>107</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>78</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>52</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>129</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" s="2">
+        <v>49</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O22" t="s">
         <v>130</v>
       </c>
-      <c r="M22" t="s">
-        <v>61</v>
-      </c>
-      <c r="N22" t="s">
+      <c r="P22" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q22" t="s">
         <v>130</v>
       </c>
-      <c r="O22" t="s">
+      <c r="R22" t="s">
         <v>116</v>
       </c>
-      <c r="P22" s="2" t="s">
+      <c r="S22" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="Q22" s="2">
-        <v>49</v>
-      </c>
-      <c r="R22" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="2:18">
+    </row>
+    <row r="23" spans="2:19">
       <c r="B23" t="s">
         <v>132</v>
       </c>
@@ -2789,41 +2819,44 @@
       <c r="G23" t="s">
         <v>134</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="I23" t="s">
         <v>107</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>51</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>52</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>135</v>
       </c>
-      <c r="L23" t="s">
-        <v>136</v>
-      </c>
-      <c r="M23" t="s">
-        <v>61</v>
-      </c>
-      <c r="N23" t="s">
+      <c r="M23" s="2">
+        <v>68</v>
+      </c>
+      <c r="N23" s="2" t="s">
         <v>136</v>
       </c>
       <c r="O23" t="s">
         <v>137</v>
       </c>
-      <c r="P23" s="2" t="s">
+      <c r="P23" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>137</v>
+      </c>
+      <c r="R23" t="s">
         <v>138</v>
       </c>
-      <c r="Q23" s="2">
-        <v>70</v>
-      </c>
-      <c r="R23" s="2" t="s">
+      <c r="S23" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="24" spans="2:18">
+    <row r="24" spans="2:19">
       <c r="B24" t="s">
         <v>140</v>
       </c>
@@ -2836,33 +2869,34 @@
       <c r="G24" t="s">
         <v>142</v>
       </c>
-      <c r="I24" t="s">
+      <c r="H24" s="2"/>
+      <c r="J24" t="s">
         <v>51</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>52</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>25</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" s="2">
+        <v>0</v>
+      </c>
+      <c r="N24" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="M24" t="s">
-        <v>61</v>
-      </c>
-      <c r="N24" t="s">
-        <v>143</v>
-      </c>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2">
-        <v>0</v>
-      </c>
-      <c r="R24" s="2" t="s">
+      <c r="O24" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="25" spans="2:18">
+      <c r="P24" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>144</v>
+      </c>
+      <c r="S24" s="2"/>
+    </row>
+    <row r="25" spans="2:19">
       <c r="B25" t="s">
         <v>145</v>
       </c>
@@ -2875,33 +2909,34 @@
       <c r="G25" t="s">
         <v>147</v>
       </c>
-      <c r="I25" t="s">
+      <c r="H25" s="2"/>
+      <c r="J25" t="s">
         <v>148</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>149</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>40</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" s="2">
+        <v>0</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O25" t="s">
         <v>150</v>
       </c>
-      <c r="M25" t="s">
+      <c r="P25" t="s">
         <v>151</v>
       </c>
-      <c r="N25" t="s">
+      <c r="Q25" t="s">
         <v>152</v>
       </c>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2">
-        <v>0</v>
-      </c>
-      <c r="R25" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="2:18">
+      <c r="S25" s="2"/>
+    </row>
+    <row r="26" spans="2:19">
       <c r="B26" t="s">
         <v>153</v>
       </c>
@@ -2914,33 +2949,34 @@
       <c r="G26" t="s">
         <v>155</v>
       </c>
-      <c r="I26" t="s">
+      <c r="H26" s="2"/>
+      <c r="J26" t="s">
         <v>23</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>35</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>40</v>
       </c>
-      <c r="L26" t="s">
+      <c r="M26" s="2">
+        <v>0</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O26" t="s">
         <v>35</v>
       </c>
-      <c r="M26" t="s">
+      <c r="P26" t="s">
         <v>35</v>
       </c>
-      <c r="N26" t="s">
+      <c r="Q26" t="s">
         <v>35</v>
       </c>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2">
-        <v>0</v>
-      </c>
-      <c r="R26" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="2:18">
+      <c r="S26" s="2"/>
+    </row>
+    <row r="27" spans="2:19">
       <c r="B27" t="s">
         <v>156</v>
       </c>
@@ -2953,33 +2989,34 @@
       <c r="G27" t="s">
         <v>158</v>
       </c>
-      <c r="I27" t="s">
+      <c r="H27" s="2"/>
+      <c r="J27" t="s">
         <v>78</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>159</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>160</v>
       </c>
-      <c r="L27" t="s">
+      <c r="M27" s="2">
+        <v>0</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O27" t="s">
         <v>161</v>
       </c>
-      <c r="M27" t="s">
-        <v>61</v>
-      </c>
-      <c r="N27" t="s">
+      <c r="P27" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q27" t="s">
         <v>161</v>
       </c>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2">
-        <v>0</v>
-      </c>
-      <c r="R27" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="2:18">
+      <c r="S27" s="2"/>
+    </row>
+    <row r="28" spans="2:19">
       <c r="B28" t="s">
         <v>162</v>
       </c>
@@ -2992,33 +3029,34 @@
       <c r="G28" t="s">
         <v>164</v>
       </c>
-      <c r="I28" t="s">
+      <c r="H28" s="2"/>
+      <c r="J28" t="s">
         <v>23</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>24</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>46</v>
       </c>
-      <c r="L28" t="s">
+      <c r="M28" s="2">
+        <v>0</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O28" t="s">
         <v>152</v>
       </c>
-      <c r="M28" t="s">
-        <v>27</v>
-      </c>
-      <c r="N28" t="s">
+      <c r="P28" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q28" t="s">
         <v>165</v>
       </c>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2">
-        <v>0</v>
-      </c>
-      <c r="R28" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="2:18">
+      <c r="S28" s="2"/>
+    </row>
+    <row r="29" spans="2:19">
       <c r="B29" t="s">
         <v>166</v>
       </c>
@@ -3031,33 +3069,34 @@
       <c r="G29" t="s">
         <v>168</v>
       </c>
-      <c r="I29" t="s">
+      <c r="H29" s="2"/>
+      <c r="J29" t="s">
         <v>23</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>24</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>129</v>
       </c>
-      <c r="L29" t="s">
+      <c r="M29" s="2">
+        <v>0</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O29" t="s">
         <v>161</v>
       </c>
-      <c r="M29" t="s">
-        <v>27</v>
-      </c>
-      <c r="N29" t="s">
+      <c r="P29" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q29" t="s">
         <v>169</v>
       </c>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2">
-        <v>0</v>
-      </c>
-      <c r="R29" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="2:18">
+      <c r="S29" s="2"/>
+    </row>
+    <row r="30" spans="2:19">
       <c r="B30" t="s">
         <v>170</v>
       </c>
@@ -3070,33 +3109,34 @@
       <c r="G30" t="s">
         <v>172</v>
       </c>
-      <c r="I30" t="s">
+      <c r="H30" s="2"/>
+      <c r="J30" t="s">
         <v>51</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>52</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
         <v>173</v>
       </c>
-      <c r="L30" t="s">
+      <c r="M30" s="2">
+        <v>0</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="O30" t="s">
         <v>74</v>
       </c>
-      <c r="M30" t="s">
-        <v>61</v>
-      </c>
-      <c r="N30" t="s">
+      <c r="P30" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q30" t="s">
         <v>74</v>
       </c>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2">
-        <v>0</v>
-      </c>
-      <c r="R30" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="31" spans="2:18">
+      <c r="S30" s="2"/>
+    </row>
+    <row r="31" spans="2:19">
       <c r="B31" t="s">
         <v>175</v>
       </c>
@@ -3109,33 +3149,34 @@
       <c r="G31" t="s">
         <v>177</v>
       </c>
-      <c r="I31" t="s">
+      <c r="H31" s="2"/>
+      <c r="J31" t="s">
         <v>51</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>52</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>99</v>
       </c>
-      <c r="L31" t="s">
+      <c r="M31" s="2">
+        <v>0</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="O31" t="s">
         <v>84</v>
       </c>
-      <c r="M31" t="s">
-        <v>61</v>
-      </c>
-      <c r="N31" t="s">
+      <c r="P31" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q31" t="s">
         <v>84</v>
       </c>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2">
-        <v>0</v>
-      </c>
-      <c r="R31" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="32" spans="2:18">
+      <c r="S31" s="2"/>
+    </row>
+    <row r="32" spans="2:19">
       <c r="B32" t="s">
         <v>179</v>
       </c>
@@ -3148,33 +3189,34 @@
       <c r="G32" t="s">
         <v>181</v>
       </c>
-      <c r="I32" t="s">
+      <c r="H32" s="2"/>
+      <c r="J32" t="s">
         <v>51</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>52</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>69</v>
       </c>
-      <c r="L32" t="s">
+      <c r="M32" s="2">
+        <v>0</v>
+      </c>
+      <c r="N32" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="M32" t="s">
-        <v>61</v>
-      </c>
-      <c r="N32" t="s">
-        <v>182</v>
-      </c>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2">
-        <v>0</v>
-      </c>
-      <c r="R32" s="2" t="s">
+      <c r="O32" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="33" spans="2:18">
+      <c r="P32" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>183</v>
+      </c>
+      <c r="S32" s="2"/>
+    </row>
+    <row r="33" spans="2:19">
       <c r="B33" t="s">
         <v>184</v>
       </c>
@@ -3187,33 +3229,34 @@
       <c r="G33" t="s">
         <v>186</v>
       </c>
-      <c r="I33" t="s">
+      <c r="H33" s="2"/>
+      <c r="J33" t="s">
         <v>51</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
         <v>52</v>
       </c>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
         <v>187</v>
       </c>
-      <c r="L33" t="s">
+      <c r="M33" s="2">
+        <v>0</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O33" t="s">
         <v>188</v>
       </c>
-      <c r="M33" t="s">
-        <v>61</v>
-      </c>
-      <c r="N33" t="s">
+      <c r="P33" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q33" t="s">
         <v>188</v>
       </c>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2">
-        <v>0</v>
-      </c>
-      <c r="R33" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18">
+      <c r="S33" s="2"/>
+    </row>
+    <row r="34" spans="2:19">
       <c r="B34" t="s">
         <v>189</v>
       </c>
@@ -3226,33 +3269,34 @@
       <c r="G34" t="s">
         <v>191</v>
       </c>
-      <c r="I34" t="s">
+      <c r="H34" s="2"/>
+      <c r="J34" t="s">
         <v>78</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>159</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
         <v>192</v>
       </c>
-      <c r="L34" t="s">
+      <c r="M34" s="2">
+        <v>0</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O34" t="s">
         <v>193</v>
       </c>
-      <c r="M34" t="s">
-        <v>61</v>
-      </c>
-      <c r="N34" t="s">
+      <c r="P34" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q34" t="s">
         <v>193</v>
       </c>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2">
-        <v>0</v>
-      </c>
-      <c r="R34" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="2:18">
+      <c r="S34" s="2"/>
+    </row>
+    <row r="35" spans="2:19">
       <c r="B35" t="s">
         <v>194</v>
       </c>
@@ -3265,33 +3309,34 @@
       <c r="G35" t="s">
         <v>196</v>
       </c>
-      <c r="I35" t="s">
+      <c r="H35" s="2"/>
+      <c r="J35" t="s">
         <v>78</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K35" t="s">
         <v>159</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35" t="s">
         <v>197</v>
       </c>
-      <c r="L35" t="s">
+      <c r="M35" s="2">
+        <v>0</v>
+      </c>
+      <c r="N35" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="M35" t="s">
-        <v>61</v>
-      </c>
-      <c r="N35" t="s">
-        <v>198</v>
-      </c>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2">
-        <v>0</v>
-      </c>
-      <c r="R35" s="2" t="s">
+      <c r="O35" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="36" spans="2:18">
+      <c r="P35" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>199</v>
+      </c>
+      <c r="S35" s="2"/>
+    </row>
+    <row r="36" spans="2:19">
       <c r="B36" t="s">
         <v>200</v>
       </c>
@@ -3304,33 +3349,34 @@
       <c r="G36" t="s">
         <v>142</v>
       </c>
-      <c r="I36" t="s">
+      <c r="H36" s="2"/>
+      <c r="J36" t="s">
         <v>51</v>
       </c>
-      <c r="J36" t="s">
+      <c r="K36" t="s">
         <v>52</v>
       </c>
-      <c r="K36" t="s">
+      <c r="L36" t="s">
         <v>25</v>
       </c>
-      <c r="L36" t="s">
-        <v>143</v>
-      </c>
-      <c r="M36" t="s">
-        <v>61</v>
-      </c>
-      <c r="N36" t="s">
-        <v>143</v>
-      </c>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2">
-        <v>0</v>
-      </c>
-      <c r="R36" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18">
+      <c r="M36" s="2">
+        <v>0</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O36" t="s">
+        <v>144</v>
+      </c>
+      <c r="P36" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>144</v>
+      </c>
+      <c r="S36" s="2"/>
+    </row>
+    <row r="37" spans="2:19">
       <c r="B37" t="s">
         <v>202</v>
       </c>
@@ -3343,33 +3389,34 @@
       <c r="G37" t="s">
         <v>204</v>
       </c>
-      <c r="I37" t="s">
+      <c r="H37" s="2"/>
+      <c r="J37" t="s">
         <v>23</v>
       </c>
-      <c r="J37" t="s">
+      <c r="K37" t="s">
         <v>24</v>
       </c>
-      <c r="K37" t="s">
+      <c r="L37" t="s">
         <v>40</v>
       </c>
-      <c r="L37" t="s">
+      <c r="M37" s="2">
+        <v>0</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O37" t="s">
         <v>41</v>
       </c>
-      <c r="M37" t="s">
-        <v>27</v>
-      </c>
-      <c r="N37" t="s">
+      <c r="P37" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q37" t="s">
         <v>42</v>
       </c>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2">
-        <v>0</v>
-      </c>
-      <c r="R37" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="2:18">
+      <c r="S37" s="2"/>
+    </row>
+    <row r="38" spans="2:19">
       <c r="B38" t="s">
         <v>205</v>
       </c>
@@ -3382,33 +3429,34 @@
       <c r="G38" t="s">
         <v>207</v>
       </c>
-      <c r="I38" t="s">
+      <c r="H38" s="2"/>
+      <c r="J38" t="s">
         <v>34</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
         <v>24</v>
       </c>
-      <c r="K38" t="s">
+      <c r="L38" t="s">
         <v>208</v>
       </c>
-      <c r="L38" t="s">
+      <c r="M38" s="2">
+        <v>0</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O38" t="s">
         <v>209</v>
       </c>
-      <c r="M38" t="s">
-        <v>27</v>
-      </c>
-      <c r="N38" t="s">
+      <c r="P38" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q38" t="s">
         <v>210</v>
       </c>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2">
-        <v>0</v>
-      </c>
-      <c r="R38" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="39" spans="2:18">
+      <c r="S38" s="2"/>
+    </row>
+    <row r="39" spans="2:19">
       <c r="B39" t="s">
         <v>211</v>
       </c>
@@ -3421,33 +3469,34 @@
       <c r="G39" t="s">
         <v>213</v>
       </c>
-      <c r="I39" t="s">
+      <c r="H39" s="2"/>
+      <c r="J39" t="s">
         <v>51</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K39" t="s">
         <v>52</v>
       </c>
-      <c r="K39" t="s">
+      <c r="L39" t="s">
         <v>187</v>
       </c>
-      <c r="L39" t="s">
-        <v>143</v>
-      </c>
-      <c r="M39" t="s">
-        <v>61</v>
-      </c>
-      <c r="N39" t="s">
-        <v>143</v>
-      </c>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2">
-        <v>0</v>
-      </c>
-      <c r="R39" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="40" spans="2:18">
+      <c r="M39" s="2">
+        <v>0</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O39" t="s">
+        <v>144</v>
+      </c>
+      <c r="P39" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>144</v>
+      </c>
+      <c r="S39" s="2"/>
+    </row>
+    <row r="40" spans="2:19">
       <c r="B40" t="s">
         <v>214</v>
       </c>
@@ -3460,33 +3509,34 @@
       <c r="G40" t="s">
         <v>216</v>
       </c>
-      <c r="I40" t="s">
+      <c r="H40" s="2"/>
+      <c r="J40" t="s">
         <v>23</v>
       </c>
-      <c r="J40" t="s">
+      <c r="K40" t="s">
         <v>24</v>
       </c>
-      <c r="K40" t="s">
+      <c r="L40" t="s">
         <v>40</v>
       </c>
-      <c r="L40" t="s">
+      <c r="M40" s="2">
+        <v>0</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O40" t="s">
         <v>217</v>
       </c>
-      <c r="M40" t="s">
-        <v>27</v>
-      </c>
-      <c r="N40" t="s">
+      <c r="P40" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q40" t="s">
         <v>218</v>
       </c>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2">
-        <v>0</v>
-      </c>
-      <c r="R40" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="41" spans="2:18">
+      <c r="S40" s="2"/>
+    </row>
+    <row r="41" spans="2:19">
       <c r="B41" t="s">
         <v>219</v>
       </c>
@@ -3499,33 +3549,34 @@
       <c r="G41" t="s">
         <v>221</v>
       </c>
-      <c r="I41" t="s">
+      <c r="H41" s="2"/>
+      <c r="J41" t="s">
         <v>148</v>
       </c>
-      <c r="J41" t="s">
+      <c r="K41" t="s">
         <v>52</v>
       </c>
-      <c r="K41" t="s">
+      <c r="L41" t="s">
         <v>222</v>
       </c>
-      <c r="L41" t="s">
+      <c r="M41" s="2">
+        <v>0</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O41" t="s">
         <v>223</v>
       </c>
-      <c r="M41" t="s">
-        <v>61</v>
-      </c>
-      <c r="N41" t="s">
+      <c r="P41" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q41" t="s">
         <v>223</v>
       </c>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2">
-        <v>0</v>
-      </c>
-      <c r="R41" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="42" spans="2:18">
+      <c r="S41" s="2"/>
+    </row>
+    <row r="42" spans="2:19">
       <c r="B42" t="s">
         <v>224</v>
       </c>
@@ -3536,132 +3587,137 @@
         <v>113</v>
       </c>
       <c r="E42">
-        <v>9053</v>
+        <v>12704</v>
       </c>
       <c r="F42">
-        <v>421</v>
+        <v>495</v>
       </c>
       <c r="G42" t="s">
         <v>226</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H42" s="2">
+        <v>2.75</v>
+      </c>
+      <c r="I42" t="s">
         <v>107</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>23</v>
       </c>
-      <c r="J42" t="s">
+      <c r="K42" t="s">
         <v>159</v>
       </c>
-      <c r="K42" t="s">
+      <c r="L42" t="s">
         <v>25</v>
       </c>
-      <c r="L42" t="s">
+      <c r="M42" s="2">
+        <v>12</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O42" t="s">
         <v>41</v>
       </c>
-      <c r="M42" t="s">
-        <v>61</v>
-      </c>
-      <c r="N42" t="s">
+      <c r="P42" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q42" t="s">
         <v>41</v>
       </c>
-      <c r="O42" t="s">
-        <v>116</v>
-      </c>
-      <c r="P42" s="2" t="s">
+      <c r="R42" t="s">
         <v>227</v>
       </c>
-      <c r="Q42" s="2">
-        <v>13</v>
-      </c>
-      <c r="R42" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="43" spans="2:18">
+      <c r="S42" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19">
       <c r="B43" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C43" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D43" t="s">
         <v>21</v>
       </c>
       <c r="G43" t="s">
-        <v>230</v>
-      </c>
-      <c r="I43" t="s">
+        <v>231</v>
+      </c>
+      <c r="H43" s="2"/>
+      <c r="J43" t="s">
         <v>51</v>
       </c>
-      <c r="J43" t="s">
+      <c r="K43" t="s">
         <v>52</v>
-      </c>
-      <c r="K43" t="s">
-        <v>231</v>
       </c>
       <c r="L43" t="s">
         <v>232</v>
       </c>
-      <c r="M43" t="s">
-        <v>61</v>
-      </c>
-      <c r="N43" t="s">
-        <v>232</v>
-      </c>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="2">
-        <v>0</v>
-      </c>
-      <c r="R43" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="44" spans="2:18">
+      <c r="M43" s="2">
+        <v>0</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O43" t="s">
+        <v>233</v>
+      </c>
+      <c r="P43" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>233</v>
+      </c>
+      <c r="S43" s="2"/>
+    </row>
+    <row r="44" spans="2:19">
       <c r="B44" t="s">
+        <v>234</v>
+      </c>
+      <c r="C44" t="s">
+        <v>235</v>
+      </c>
+      <c r="D44" t="s">
+        <v>21</v>
+      </c>
+      <c r="G44" t="s">
+        <v>236</v>
+      </c>
+      <c r="H44" s="2"/>
+      <c r="J44" t="s">
+        <v>51</v>
+      </c>
+      <c r="K44" t="s">
+        <v>52</v>
+      </c>
+      <c r="L44" t="s">
+        <v>237</v>
+      </c>
+      <c r="M44" s="2">
+        <v>0</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O44" t="s">
         <v>233</v>
       </c>
-      <c r="C44" t="s">
-        <v>234</v>
-      </c>
-      <c r="D44" t="s">
-        <v>21</v>
-      </c>
-      <c r="G44" t="s">
-        <v>235</v>
-      </c>
-      <c r="I44" t="s">
-        <v>51</v>
-      </c>
-      <c r="J44" t="s">
-        <v>52</v>
-      </c>
-      <c r="K44" t="s">
-        <v>236</v>
-      </c>
-      <c r="L44" t="s">
-        <v>232</v>
-      </c>
-      <c r="M44" t="s">
-        <v>61</v>
-      </c>
-      <c r="N44" t="s">
-        <v>232</v>
-      </c>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2">
-        <v>0</v>
-      </c>
-      <c r="R44" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="45" spans="2:18">
+      <c r="P44" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>233</v>
+      </c>
+      <c r="S44" s="2"/>
+    </row>
+    <row r="45" spans="2:19">
       <c r="B45" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C45" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D45" t="s">
         <v>105</v>
@@ -3673,123 +3729,128 @@
         <v>427</v>
       </c>
       <c r="G45" t="s">
-        <v>239</v>
-      </c>
-      <c r="H45" t="s">
+        <v>240</v>
+      </c>
+      <c r="H45" s="2">
+        <v>2.55</v>
+      </c>
+      <c r="I45" t="s">
         <v>107</v>
       </c>
-      <c r="I45" t="s">
+      <c r="J45" t="s">
         <v>51</v>
       </c>
-      <c r="J45" t="s">
+      <c r="K45" t="s">
         <v>35</v>
       </c>
-      <c r="K45" t="s">
-        <v>240</v>
-      </c>
       <c r="L45" t="s">
+        <v>241</v>
+      </c>
+      <c r="M45" s="2">
+        <v>0</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O45" t="s">
         <v>35</v>
       </c>
-      <c r="M45" t="s">
+      <c r="P45" t="s">
         <v>35</v>
       </c>
-      <c r="N45" t="s">
+      <c r="Q45" t="s">
         <v>35</v>
       </c>
-      <c r="P45" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q45" s="2">
-        <v>0</v>
-      </c>
-      <c r="R45" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="46" spans="2:18">
+      <c r="S45" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19">
       <c r="B46" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C46" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D46" t="s">
         <v>21</v>
       </c>
       <c r="G46" t="s">
-        <v>244</v>
-      </c>
-      <c r="I46" t="s">
+        <v>245</v>
+      </c>
+      <c r="H46" s="2"/>
+      <c r="J46" t="s">
         <v>34</v>
       </c>
-      <c r="J46" t="s">
+      <c r="K46" t="s">
         <v>24</v>
       </c>
-      <c r="K46" t="s">
+      <c r="L46" t="s">
         <v>25</v>
       </c>
-      <c r="L46" t="s">
-        <v>245</v>
-      </c>
-      <c r="M46" t="s">
-        <v>27</v>
-      </c>
-      <c r="N46" t="s">
+      <c r="M46" s="2">
+        <v>0</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O46" t="s">
         <v>246</v>
       </c>
-      <c r="P46" s="2"/>
-      <c r="Q46" s="2">
-        <v>0</v>
-      </c>
-      <c r="R46" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="47" spans="2:18">
+      <c r="P46" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>247</v>
+      </c>
+      <c r="S46" s="2"/>
+    </row>
+    <row r="47" spans="2:19">
       <c r="B47" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C47" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D47" t="s">
         <v>21</v>
       </c>
       <c r="G47" t="s">
-        <v>249</v>
-      </c>
-      <c r="I47" t="s">
+        <v>250</v>
+      </c>
+      <c r="H47" s="2"/>
+      <c r="J47" t="s">
         <v>34</v>
       </c>
-      <c r="J47" t="s">
+      <c r="K47" t="s">
         <v>24</v>
       </c>
-      <c r="K47" t="s">
+      <c r="L47" t="s">
         <v>25</v>
       </c>
-      <c r="L47" t="s">
-        <v>250</v>
-      </c>
-      <c r="M47" t="s">
-        <v>27</v>
-      </c>
-      <c r="N47" t="s">
+      <c r="M47" s="2">
+        <v>0</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="O47" t="s">
         <v>251</v>
       </c>
-      <c r="P47" s="2"/>
-      <c r="Q47" s="2">
-        <v>0</v>
-      </c>
-      <c r="R47" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="48" spans="2:18">
+      <c r="P47" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>252</v>
+      </c>
+      <c r="S47" s="2"/>
+    </row>
+    <row r="48" spans="2:19">
       <c r="B48" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C48" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D48" t="s">
         <v>113</v>
@@ -3801,218 +3862,227 @@
         <v>650</v>
       </c>
       <c r="G48" t="s">
-        <v>254</v>
-      </c>
-      <c r="H48" t="s">
+        <v>255</v>
+      </c>
+      <c r="H48" s="2">
+        <v>2.67</v>
+      </c>
+      <c r="I48" t="s">
         <v>107</v>
       </c>
-      <c r="I48" t="s">
+      <c r="J48" t="s">
         <v>51</v>
       </c>
-      <c r="J48" t="s">
+      <c r="K48" t="s">
         <v>159</v>
       </c>
-      <c r="K48" t="s">
+      <c r="L48" t="s">
         <v>135</v>
       </c>
-      <c r="L48" t="s">
+      <c r="M48" s="2">
+        <v>52</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O48" t="s">
         <v>188</v>
       </c>
-      <c r="M48" t="s">
-        <v>61</v>
-      </c>
-      <c r="N48" t="s">
+      <c r="P48" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q48" t="s">
         <v>188</v>
       </c>
-      <c r="O48" t="s">
+      <c r="R48" t="s">
         <v>116</v>
       </c>
-      <c r="P48" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q48" s="2">
-        <v>49</v>
-      </c>
-      <c r="R48" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="49" spans="2:18">
+      <c r="S48" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="49" spans="2:19">
       <c r="B49" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C49" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D49" t="s">
         <v>21</v>
       </c>
       <c r="G49" t="s">
-        <v>258</v>
-      </c>
-      <c r="I49" t="s">
+        <v>259</v>
+      </c>
+      <c r="H49" s="2"/>
+      <c r="J49" t="s">
         <v>34</v>
       </c>
-      <c r="J49" t="s">
+      <c r="K49" t="s">
         <v>159</v>
       </c>
-      <c r="K49" t="s">
+      <c r="L49" t="s">
         <v>25</v>
       </c>
-      <c r="L49" t="s">
-        <v>259</v>
-      </c>
-      <c r="M49" t="s">
-        <v>61</v>
-      </c>
-      <c r="N49" t="s">
-        <v>259</v>
-      </c>
-      <c r="P49" s="2"/>
-      <c r="Q49" s="2">
-        <v>0</v>
-      </c>
-      <c r="R49" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="50" spans="2:18">
+      <c r="M49" s="2">
+        <v>0</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O49" t="s">
+        <v>260</v>
+      </c>
+      <c r="P49" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>260</v>
+      </c>
+      <c r="S49" s="2"/>
+    </row>
+    <row r="50" spans="2:19">
       <c r="B50" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C50" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D50" t="s">
         <v>113</v>
       </c>
       <c r="E50">
-        <v>9796</v>
+        <v>9462</v>
       </c>
       <c r="F50">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="G50" t="s">
-        <v>262</v>
-      </c>
-      <c r="H50" t="s">
+        <v>263</v>
+      </c>
+      <c r="H50" s="2">
+        <v>2.72</v>
+      </c>
+      <c r="I50" t="s">
         <v>107</v>
       </c>
-      <c r="I50" t="s">
+      <c r="J50" t="s">
         <v>23</v>
       </c>
-      <c r="J50" t="s">
+      <c r="K50" t="s">
         <v>35</v>
       </c>
-      <c r="K50" t="s">
+      <c r="L50" t="s">
         <v>40</v>
       </c>
-      <c r="L50" t="s">
+      <c r="M50" s="2">
+        <v>25</v>
+      </c>
+      <c r="N50" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="O50" t="s">
         <v>35</v>
       </c>
-      <c r="M50" t="s">
+      <c r="P50" t="s">
         <v>35</v>
       </c>
-      <c r="N50" t="s">
+      <c r="Q50" t="s">
         <v>35</v>
       </c>
-      <c r="O50" t="s">
-        <v>116</v>
-      </c>
-      <c r="P50" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q50" s="2">
+      <c r="R50" t="s">
+        <v>265</v>
+      </c>
+      <c r="S50" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="51" spans="2:19">
+      <c r="B51" t="s">
+        <v>267</v>
+      </c>
+      <c r="C51" t="s">
+        <v>268</v>
+      </c>
+      <c r="D51" t="s">
+        <v>21</v>
+      </c>
+      <c r="G51" t="s">
+        <v>269</v>
+      </c>
+      <c r="H51" s="2"/>
+      <c r="J51" t="s">
+        <v>78</v>
+      </c>
+      <c r="K51" t="s">
+        <v>52</v>
+      </c>
+      <c r="L51" t="s">
+        <v>270</v>
+      </c>
+      <c r="M51" s="2">
+        <v>0</v>
+      </c>
+      <c r="N51" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="O51" t="s">
+        <v>144</v>
+      </c>
+      <c r="P51" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>144</v>
+      </c>
+      <c r="S51" s="2"/>
+    </row>
+    <row r="52" spans="2:19">
+      <c r="B52" t="s">
+        <v>272</v>
+      </c>
+      <c r="C52" t="s">
+        <v>273</v>
+      </c>
+      <c r="D52" t="s">
+        <v>21</v>
+      </c>
+      <c r="G52" t="s">
+        <v>274</v>
+      </c>
+      <c r="H52" s="2"/>
+      <c r="J52" t="s">
+        <v>23</v>
+      </c>
+      <c r="K52" t="s">
+        <v>24</v>
+      </c>
+      <c r="L52" t="s">
         <v>25</v>
       </c>
-      <c r="R50" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="51" spans="2:18">
-      <c r="B51" t="s">
-        <v>265</v>
-      </c>
-      <c r="C51" t="s">
-        <v>266</v>
-      </c>
-      <c r="D51" t="s">
-        <v>21</v>
-      </c>
-      <c r="G51" t="s">
-        <v>267</v>
-      </c>
-      <c r="I51" t="s">
-        <v>78</v>
-      </c>
-      <c r="J51" t="s">
-        <v>52</v>
-      </c>
-      <c r="K51" t="s">
-        <v>268</v>
-      </c>
-      <c r="L51" t="s">
-        <v>143</v>
-      </c>
-      <c r="M51" t="s">
-        <v>61</v>
-      </c>
-      <c r="N51" t="s">
-        <v>143</v>
-      </c>
-      <c r="P51" s="2"/>
-      <c r="Q51" s="2">
-        <v>0</v>
-      </c>
-      <c r="R51" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="52" spans="2:18">
-      <c r="B52" t="s">
-        <v>270</v>
-      </c>
-      <c r="C52" t="s">
-        <v>271</v>
-      </c>
-      <c r="D52" t="s">
-        <v>21</v>
-      </c>
-      <c r="G52" t="s">
-        <v>272</v>
-      </c>
-      <c r="I52" t="s">
-        <v>23</v>
-      </c>
-      <c r="J52" t="s">
-        <v>24</v>
-      </c>
-      <c r="K52" t="s">
-        <v>25</v>
-      </c>
-      <c r="L52" t="s">
-        <v>273</v>
-      </c>
-      <c r="M52" t="s">
-        <v>27</v>
-      </c>
-      <c r="N52" t="s">
-        <v>274</v>
-      </c>
-      <c r="P52" s="2"/>
-      <c r="Q52" s="2">
-        <v>0</v>
-      </c>
-      <c r="R52" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="53" spans="2:18">
+      <c r="M52" s="2">
+        <v>0</v>
+      </c>
+      <c r="N52" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O52" t="s">
+        <v>275</v>
+      </c>
+      <c r="P52" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>276</v>
+      </c>
+      <c r="S52" s="2"/>
+    </row>
+    <row r="53" spans="2:19">
       <c r="B53" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C53" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D53" t="s">
         <v>21</v>
@@ -4020,38 +4090,39 @@
       <c r="G53" t="s">
         <v>50</v>
       </c>
-      <c r="I53" t="s">
+      <c r="H53" s="2"/>
+      <c r="J53" t="s">
         <v>51</v>
       </c>
-      <c r="J53" t="s">
+      <c r="K53" t="s">
         <v>52</v>
       </c>
-      <c r="K53" t="s">
-        <v>277</v>
-      </c>
       <c r="L53" t="s">
+        <v>279</v>
+      </c>
+      <c r="M53" s="2">
+        <v>0</v>
+      </c>
+      <c r="N53" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="O53" t="s">
         <v>54</v>
       </c>
-      <c r="M53" t="s">
-        <v>61</v>
-      </c>
-      <c r="N53" t="s">
+      <c r="P53" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q53" t="s">
         <v>54</v>
       </c>
-      <c r="P53" s="2"/>
-      <c r="Q53" s="2">
-        <v>0</v>
-      </c>
-      <c r="R53" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="54" spans="2:18">
+      <c r="S53" s="2"/>
+    </row>
+    <row r="54" spans="2:19">
       <c r="B54" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C54" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D54" t="s">
         <v>105</v>
@@ -4063,318 +4134,328 @@
         <v>638</v>
       </c>
       <c r="G54" t="s">
-        <v>281</v>
-      </c>
-      <c r="H54" t="s">
+        <v>283</v>
+      </c>
+      <c r="H54" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="I54" t="s">
         <v>107</v>
       </c>
-      <c r="I54" t="s">
+      <c r="J54" t="s">
         <v>34</v>
       </c>
-      <c r="J54" t="s">
+      <c r="K54" t="s">
         <v>52</v>
       </c>
-      <c r="K54" t="s">
+      <c r="L54" t="s">
         <v>40</v>
       </c>
-      <c r="L54" t="s">
-        <v>282</v>
-      </c>
-      <c r="M54" t="s">
-        <v>61</v>
-      </c>
-      <c r="N54" t="s">
-        <v>282</v>
-      </c>
-      <c r="P54" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q54" s="2">
-        <v>0</v>
-      </c>
-      <c r="R54" s="2" t="s">
+      <c r="M54" s="2">
+        <v>0</v>
+      </c>
+      <c r="N54" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="55" spans="2:18">
+      <c r="O54" t="s">
+        <v>284</v>
+      </c>
+      <c r="P54" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>284</v>
+      </c>
+      <c r="S54" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="55" spans="2:19">
       <c r="B55" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C55" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D55" t="s">
         <v>21</v>
       </c>
       <c r="G55" t="s">
-        <v>286</v>
-      </c>
-      <c r="I55" t="s">
+        <v>288</v>
+      </c>
+      <c r="H55" s="2"/>
+      <c r="J55" t="s">
         <v>78</v>
       </c>
-      <c r="J55" t="s">
+      <c r="K55" t="s">
         <v>159</v>
       </c>
-      <c r="K55" t="s">
+      <c r="L55" t="s">
         <v>115</v>
       </c>
-      <c r="L55" t="s">
+      <c r="M55" s="2">
+        <v>0</v>
+      </c>
+      <c r="N55" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O55" t="s">
         <v>130</v>
       </c>
-      <c r="M55" t="s">
-        <v>61</v>
-      </c>
-      <c r="N55" t="s">
+      <c r="P55" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q55" t="s">
         <v>130</v>
       </c>
-      <c r="P55" s="2"/>
-      <c r="Q55" s="2">
-        <v>0</v>
-      </c>
-      <c r="R55" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="56" spans="2:18">
+      <c r="S55" s="2"/>
+    </row>
+    <row r="56" spans="2:19">
       <c r="B56" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C56" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D56" t="s">
         <v>21</v>
       </c>
       <c r="G56" t="s">
-        <v>289</v>
-      </c>
-      <c r="I56" t="s">
+        <v>291</v>
+      </c>
+      <c r="H56" s="2"/>
+      <c r="J56" t="s">
         <v>23</v>
       </c>
-      <c r="J56" t="s">
+      <c r="K56" t="s">
         <v>24</v>
       </c>
-      <c r="K56" t="s">
+      <c r="L56" t="s">
         <v>40</v>
       </c>
-      <c r="L56" t="s">
-        <v>290</v>
-      </c>
-      <c r="M56" t="s">
-        <v>27</v>
-      </c>
-      <c r="N56" t="s">
-        <v>291</v>
-      </c>
-      <c r="P56" s="2"/>
-      <c r="Q56" s="2">
-        <v>0</v>
-      </c>
-      <c r="R56" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="57" spans="2:18">
+      <c r="M56" s="2">
+        <v>0</v>
+      </c>
+      <c r="N56" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O56" t="s">
+        <v>292</v>
+      </c>
+      <c r="P56" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>293</v>
+      </c>
+      <c r="S56" s="2"/>
+    </row>
+    <row r="57" spans="2:19">
       <c r="B57" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C57" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D57" t="s">
         <v>21</v>
       </c>
       <c r="G57" t="s">
-        <v>294</v>
-      </c>
-      <c r="I57" t="s">
+        <v>296</v>
+      </c>
+      <c r="H57" s="2"/>
+      <c r="J57" t="s">
         <v>51</v>
       </c>
-      <c r="J57" t="s">
+      <c r="K57" t="s">
         <v>52</v>
       </c>
-      <c r="K57" t="s">
-        <v>295</v>
-      </c>
       <c r="L57" t="s">
+        <v>297</v>
+      </c>
+      <c r="M57" s="2">
+        <v>0</v>
+      </c>
+      <c r="N57" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O57" t="s">
         <v>60</v>
       </c>
-      <c r="M57" t="s">
-        <v>61</v>
-      </c>
-      <c r="N57" t="s">
+      <c r="P57" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q57" t="s">
         <v>60</v>
       </c>
-      <c r="P57" s="2"/>
-      <c r="Q57" s="2">
-        <v>0</v>
-      </c>
-      <c r="R57" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="58" spans="2:18">
+      <c r="S57" s="2"/>
+    </row>
+    <row r="58" spans="2:19">
       <c r="B58" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C58" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D58" t="s">
         <v>21</v>
       </c>
       <c r="G58" t="s">
-        <v>298</v>
-      </c>
-      <c r="I58" t="s">
+        <v>300</v>
+      </c>
+      <c r="H58" s="2"/>
+      <c r="J58" t="s">
         <v>51</v>
       </c>
-      <c r="J58" t="s">
+      <c r="K58" t="s">
         <v>52</v>
       </c>
-      <c r="K58" t="s">
+      <c r="L58" t="s">
         <v>99</v>
       </c>
-      <c r="L58" t="s">
-        <v>299</v>
-      </c>
-      <c r="M58" t="s">
-        <v>61</v>
-      </c>
-      <c r="N58" t="s">
-        <v>299</v>
-      </c>
-      <c r="P58" s="2"/>
-      <c r="Q58" s="2">
-        <v>0</v>
-      </c>
-      <c r="R58" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="59" spans="2:18">
+      <c r="M58" s="2">
+        <v>0</v>
+      </c>
+      <c r="N58" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O58" t="s">
+        <v>301</v>
+      </c>
+      <c r="P58" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>301</v>
+      </c>
+      <c r="S58" s="2"/>
+    </row>
+    <row r="59" spans="2:19">
       <c r="B59" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C59" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D59" t="s">
         <v>32</v>
       </c>
       <c r="G59" t="s">
-        <v>302</v>
-      </c>
-      <c r="I59" t="s">
+        <v>304</v>
+      </c>
+      <c r="H59" s="2"/>
+      <c r="J59" t="s">
         <v>34</v>
       </c>
-      <c r="J59" t="s">
+      <c r="K59" t="s">
         <v>35</v>
       </c>
-      <c r="K59" t="s">
-        <v>303</v>
-      </c>
       <c r="L59" t="s">
+        <v>305</v>
+      </c>
+      <c r="M59" s="2">
+        <v>0</v>
+      </c>
+      <c r="N59" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O59" t="s">
         <v>35</v>
       </c>
-      <c r="M59" t="s">
+      <c r="P59" t="s">
         <v>35</v>
       </c>
-      <c r="N59" t="s">
+      <c r="Q59" t="s">
         <v>35</v>
       </c>
-      <c r="P59" s="2"/>
-      <c r="Q59" s="2">
-        <v>0</v>
-      </c>
-      <c r="R59" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="60" spans="2:18">
+      <c r="S59" s="2"/>
+    </row>
+    <row r="60" spans="2:19">
       <c r="B60" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C60" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D60" t="s">
         <v>21</v>
       </c>
       <c r="G60" t="s">
-        <v>306</v>
-      </c>
-      <c r="I60" t="s">
+        <v>308</v>
+      </c>
+      <c r="H60" s="2"/>
+      <c r="J60" t="s">
         <v>23</v>
       </c>
-      <c r="J60" t="s">
+      <c r="K60" t="s">
         <v>52</v>
       </c>
-      <c r="K60" t="s">
-        <v>307</v>
-      </c>
       <c r="L60" t="s">
+        <v>309</v>
+      </c>
+      <c r="M60" s="2">
+        <v>0</v>
+      </c>
+      <c r="N60" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O60" t="s">
         <v>60</v>
       </c>
-      <c r="M60" t="s">
-        <v>61</v>
-      </c>
-      <c r="N60" t="s">
+      <c r="P60" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q60" t="s">
         <v>60</v>
       </c>
-      <c r="P60" s="2"/>
-      <c r="Q60" s="2">
-        <v>0</v>
-      </c>
-      <c r="R60" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="61" spans="2:18">
+      <c r="S60" s="2"/>
+    </row>
+    <row r="61" spans="2:19">
       <c r="B61" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C61" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D61" t="s">
         <v>21</v>
       </c>
       <c r="G61" t="s">
-        <v>310</v>
-      </c>
-      <c r="I61" t="s">
+        <v>312</v>
+      </c>
+      <c r="H61" s="2"/>
+      <c r="J61" t="s">
         <v>51</v>
       </c>
-      <c r="J61" t="s">
+      <c r="K61" t="s">
         <v>52</v>
       </c>
-      <c r="K61" t="s">
+      <c r="L61" t="s">
         <v>115</v>
       </c>
-      <c r="L61" t="s">
+      <c r="M61" s="2">
+        <v>0</v>
+      </c>
+      <c r="N61" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O61" t="s">
         <v>74</v>
       </c>
-      <c r="M61" t="s">
+      <c r="P61" t="s">
         <v>55</v>
       </c>
-      <c r="N61" t="s">
+      <c r="Q61" t="s">
         <v>74</v>
       </c>
-      <c r="P61" s="2"/>
-      <c r="Q61" s="2">
-        <v>0</v>
-      </c>
-      <c r="R61" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="62" spans="2:18">
+      <c r="S61" s="2"/>
+    </row>
+    <row r="62" spans="2:19">
       <c r="B62" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C62" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D62" t="s">
         <v>105</v>
@@ -4386,290 +4467,304 @@
         <v>458</v>
       </c>
       <c r="G62" t="s">
-        <v>313</v>
-      </c>
-      <c r="H62" t="s">
+        <v>315</v>
+      </c>
+      <c r="H62" s="2">
+        <v>2.55</v>
+      </c>
+      <c r="I62" t="s">
         <v>107</v>
       </c>
-      <c r="I62" t="s">
+      <c r="J62" t="s">
         <v>51</v>
       </c>
-      <c r="J62" t="s">
+      <c r="K62" t="s">
         <v>52</v>
       </c>
-      <c r="K62" t="s">
-        <v>240</v>
-      </c>
       <c r="L62" t="s">
+        <v>241</v>
+      </c>
+      <c r="M62" s="2">
+        <v>0</v>
+      </c>
+      <c r="N62" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O62" t="s">
         <v>54</v>
       </c>
-      <c r="M62" t="s">
+      <c r="P62" t="s">
         <v>55</v>
       </c>
-      <c r="N62" t="s">
+      <c r="Q62" t="s">
         <v>54</v>
       </c>
-      <c r="P62" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q62" s="2">
-        <v>0</v>
-      </c>
-      <c r="R62" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="63" spans="2:18">
+      <c r="S62" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="63" spans="2:19">
       <c r="B63" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C63" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D63" t="s">
         <v>21</v>
       </c>
       <c r="G63" t="s">
-        <v>317</v>
-      </c>
-      <c r="I63" t="s">
+        <v>319</v>
+      </c>
+      <c r="H63" s="2"/>
+      <c r="J63" t="s">
         <v>78</v>
       </c>
-      <c r="J63" t="s">
+      <c r="K63" t="s">
         <v>159</v>
       </c>
-      <c r="K63" t="s">
+      <c r="L63" t="s">
         <v>135</v>
       </c>
-      <c r="L63" t="s">
+      <c r="M63" s="2">
+        <v>0</v>
+      </c>
+      <c r="N63" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O63" t="s">
         <v>193</v>
       </c>
-      <c r="M63" t="s">
-        <v>61</v>
-      </c>
-      <c r="N63" t="s">
+      <c r="P63" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q63" t="s">
         <v>193</v>
       </c>
-      <c r="P63" s="2"/>
-      <c r="Q63" s="2">
-        <v>0</v>
-      </c>
-      <c r="R63" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="64" spans="2:18">
+      <c r="S63" s="2"/>
+    </row>
+    <row r="64" spans="2:19">
       <c r="B64" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C64" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D64" t="s">
         <v>21</v>
       </c>
       <c r="G64" t="s">
-        <v>320</v>
-      </c>
-      <c r="I64" t="s">
+        <v>322</v>
+      </c>
+      <c r="H64" s="2"/>
+      <c r="J64" t="s">
         <v>78</v>
       </c>
-      <c r="J64" t="s">
+      <c r="K64" t="s">
         <v>159</v>
       </c>
-      <c r="K64" t="s">
-        <v>321</v>
-      </c>
       <c r="L64" t="s">
-        <v>322</v>
-      </c>
-      <c r="M64" t="s">
-        <v>61</v>
-      </c>
-      <c r="N64" t="s">
-        <v>322</v>
-      </c>
-      <c r="P64" s="2"/>
-      <c r="Q64" s="2">
-        <v>0</v>
-      </c>
-      <c r="R64" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="65" spans="2:18">
+        <v>323</v>
+      </c>
+      <c r="M64" s="2">
+        <v>0</v>
+      </c>
+      <c r="N64" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O64" t="s">
+        <v>324</v>
+      </c>
+      <c r="P64" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>324</v>
+      </c>
+      <c r="S64" s="2"/>
+    </row>
+    <row r="65" spans="2:19">
       <c r="B65" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C65" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D65" t="s">
         <v>21</v>
       </c>
       <c r="G65" t="s">
-        <v>325</v>
-      </c>
-      <c r="I65" t="s">
+        <v>327</v>
+      </c>
+      <c r="H65" s="2"/>
+      <c r="J65" t="s">
         <v>34</v>
       </c>
-      <c r="J65" t="s">
+      <c r="K65" t="s">
         <v>52</v>
       </c>
-      <c r="K65" t="s">
+      <c r="L65" t="s">
         <v>129</v>
       </c>
-      <c r="L65" t="s">
-        <v>250</v>
-      </c>
-      <c r="M65" t="s">
-        <v>61</v>
-      </c>
-      <c r="N65" t="s">
-        <v>250</v>
-      </c>
-      <c r="P65" s="2"/>
-      <c r="Q65" s="2">
-        <v>0</v>
-      </c>
-      <c r="R65" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="66" spans="2:18">
+      <c r="M65" s="2">
+        <v>0</v>
+      </c>
+      <c r="N65" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O65" t="s">
+        <v>251</v>
+      </c>
+      <c r="P65" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>251</v>
+      </c>
+      <c r="S65" s="2"/>
+    </row>
+    <row r="66" spans="2:19">
       <c r="B66" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C66" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D66" t="s">
         <v>21</v>
       </c>
       <c r="G66" t="s">
-        <v>328</v>
-      </c>
-      <c r="I66" t="s">
+        <v>330</v>
+      </c>
+      <c r="H66" s="2"/>
+      <c r="J66" t="s">
         <v>51</v>
       </c>
-      <c r="J66" t="s">
+      <c r="K66" t="s">
         <v>52</v>
       </c>
-      <c r="K66" t="s">
-        <v>329</v>
-      </c>
       <c r="L66" t="s">
-        <v>143</v>
-      </c>
-      <c r="M66" t="s">
-        <v>61</v>
-      </c>
-      <c r="N66" t="s">
-        <v>143</v>
-      </c>
-      <c r="P66" s="2"/>
-      <c r="Q66" s="2">
-        <v>0</v>
-      </c>
-      <c r="R66" s="2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="67" spans="2:18">
+        <v>331</v>
+      </c>
+      <c r="M66" s="2">
+        <v>0</v>
+      </c>
+      <c r="N66" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="O66" t="s">
+        <v>144</v>
+      </c>
+      <c r="P66" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>144</v>
+      </c>
+      <c r="S66" s="2"/>
+    </row>
+    <row r="67" spans="2:19">
       <c r="B67" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C67" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D67" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E67">
-        <v>10136</v>
+        <v>9462</v>
       </c>
       <c r="F67">
-        <v>534</v>
+        <v>595</v>
       </c>
       <c r="G67" t="s">
-        <v>333</v>
-      </c>
-      <c r="H67" t="s">
+        <v>335</v>
+      </c>
+      <c r="H67" s="2">
+        <v>2.75</v>
+      </c>
+      <c r="I67" t="s">
         <v>107</v>
       </c>
-      <c r="I67" t="s">
+      <c r="J67" t="s">
         <v>34</v>
       </c>
-      <c r="J67" t="s">
+      <c r="K67" t="s">
         <v>35</v>
       </c>
-      <c r="K67" t="s">
+      <c r="L67" t="s">
         <v>95</v>
       </c>
-      <c r="L67" t="s">
+      <c r="M67" s="2">
+        <v>2</v>
+      </c>
+      <c r="N67" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O67" t="s">
         <v>35</v>
       </c>
-      <c r="M67" t="s">
+      <c r="P67" t="s">
         <v>35</v>
       </c>
-      <c r="N67" t="s">
+      <c r="Q67" t="s">
         <v>35</v>
       </c>
-      <c r="P67" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="Q67" s="2">
-        <v>0</v>
-      </c>
-      <c r="R67" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="68" spans="2:18">
+      <c r="R67" t="s">
+        <v>265</v>
+      </c>
+      <c r="S67" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="68" spans="2:19">
       <c r="B68" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C68" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D68" t="s">
         <v>21</v>
       </c>
       <c r="G68" t="s">
-        <v>337</v>
-      </c>
-      <c r="I68" t="s">
+        <v>339</v>
+      </c>
+      <c r="H68" s="2"/>
+      <c r="J68" t="s">
         <v>34</v>
       </c>
-      <c r="J68" t="s">
+      <c r="K68" t="s">
         <v>24</v>
       </c>
-      <c r="K68" t="s">
+      <c r="L68" t="s">
         <v>40</v>
       </c>
-      <c r="L68" t="s">
-        <v>338</v>
-      </c>
-      <c r="M68" t="s">
-        <v>27</v>
-      </c>
-      <c r="N68" t="s">
-        <v>339</v>
-      </c>
-      <c r="P68" s="2"/>
-      <c r="Q68" s="2">
-        <v>0</v>
-      </c>
-      <c r="R68" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="69" spans="2:18">
+      <c r="M68" s="2">
+        <v>0</v>
+      </c>
+      <c r="N68" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O68" t="s">
+        <v>340</v>
+      </c>
+      <c r="P68" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>341</v>
+      </c>
+      <c r="S68" s="2"/>
+    </row>
+    <row r="69" spans="2:19">
       <c r="B69" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C69" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D69" t="s">
         <v>105</v>
@@ -4681,549 +4776,560 @@
         <v>443</v>
       </c>
       <c r="G69" t="s">
-        <v>342</v>
-      </c>
-      <c r="H69" t="s">
+        <v>344</v>
+      </c>
+      <c r="H69" s="2">
+        <v>2.64</v>
+      </c>
+      <c r="I69" t="s">
         <v>107</v>
       </c>
-      <c r="I69" t="s">
+      <c r="J69" t="s">
         <v>78</v>
       </c>
-      <c r="J69" t="s">
+      <c r="K69" t="s">
         <v>159</v>
       </c>
-      <c r="K69" t="s">
-        <v>343</v>
-      </c>
       <c r="L69" t="s">
+        <v>345</v>
+      </c>
+      <c r="M69" s="2">
+        <v>0</v>
+      </c>
+      <c r="N69" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O69" t="s">
         <v>193</v>
       </c>
-      <c r="M69" t="s">
-        <v>61</v>
-      </c>
-      <c r="N69" t="s">
+      <c r="P69" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q69" t="s">
         <v>193</v>
       </c>
-      <c r="P69" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q69" s="2">
-        <v>0</v>
-      </c>
-      <c r="R69" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="70" spans="2:18">
+      <c r="S69" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19">
       <c r="B70" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C70" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D70" t="s">
-        <v>105</v>
-      </c>
-      <c r="E70">
-        <v>10136</v>
-      </c>
-      <c r="F70">
-        <v>437</v>
+        <v>21</v>
       </c>
       <c r="G70" t="s">
-        <v>347</v>
-      </c>
-      <c r="H70" t="s">
+        <v>349</v>
+      </c>
+      <c r="H70" s="2"/>
+      <c r="J70" t="s">
+        <v>34</v>
+      </c>
+      <c r="K70" t="s">
+        <v>159</v>
+      </c>
+      <c r="L70" t="s">
+        <v>25</v>
+      </c>
+      <c r="M70" s="2">
+        <v>0</v>
+      </c>
+      <c r="N70" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O70" t="s">
+        <v>340</v>
+      </c>
+      <c r="P70" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>340</v>
+      </c>
+      <c r="S70" s="2"/>
+    </row>
+    <row r="71" spans="2:19">
+      <c r="B71" t="s">
+        <v>350</v>
+      </c>
+      <c r="C71" t="s">
+        <v>351</v>
+      </c>
+      <c r="D71" t="s">
+        <v>21</v>
+      </c>
+      <c r="G71" t="s">
+        <v>352</v>
+      </c>
+      <c r="H71" s="2"/>
+      <c r="J71" t="s">
+        <v>34</v>
+      </c>
+      <c r="K71" t="s">
+        <v>35</v>
+      </c>
+      <c r="L71" t="s">
+        <v>95</v>
+      </c>
+      <c r="M71" s="2">
+        <v>0</v>
+      </c>
+      <c r="N71" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O71" t="s">
+        <v>35</v>
+      </c>
+      <c r="P71" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>35</v>
+      </c>
+      <c r="S71" s="2"/>
+    </row>
+    <row r="72" spans="2:19">
+      <c r="B72" t="s">
+        <v>353</v>
+      </c>
+      <c r="C72" t="s">
+        <v>354</v>
+      </c>
+      <c r="D72" t="s">
+        <v>21</v>
+      </c>
+      <c r="G72" t="s">
+        <v>355</v>
+      </c>
+      <c r="H72" s="2"/>
+      <c r="J72" t="s">
+        <v>34</v>
+      </c>
+      <c r="K72" t="s">
+        <v>24</v>
+      </c>
+      <c r="L72" t="s">
+        <v>40</v>
+      </c>
+      <c r="M72" s="2">
+        <v>0</v>
+      </c>
+      <c r="N72" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O72" t="s">
+        <v>356</v>
+      </c>
+      <c r="P72" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>357</v>
+      </c>
+      <c r="S72" s="2"/>
+    </row>
+    <row r="73" spans="2:19">
+      <c r="B73" t="s">
+        <v>358</v>
+      </c>
+      <c r="C73" t="s">
+        <v>359</v>
+      </c>
+      <c r="D73" t="s">
+        <v>21</v>
+      </c>
+      <c r="G73" t="s">
+        <v>360</v>
+      </c>
+      <c r="H73" s="2"/>
+      <c r="J73" t="s">
+        <v>34</v>
+      </c>
+      <c r="K73" t="s">
+        <v>159</v>
+      </c>
+      <c r="L73" t="s">
+        <v>25</v>
+      </c>
+      <c r="M73" s="2">
+        <v>0</v>
+      </c>
+      <c r="N73" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O73" t="s">
+        <v>361</v>
+      </c>
+      <c r="P73" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>361</v>
+      </c>
+      <c r="S73" s="2"/>
+    </row>
+    <row r="74" spans="2:19">
+      <c r="B74" t="s">
+        <v>362</v>
+      </c>
+      <c r="C74" t="s">
+        <v>363</v>
+      </c>
+      <c r="D74" t="s">
+        <v>21</v>
+      </c>
+      <c r="G74" t="s">
+        <v>364</v>
+      </c>
+      <c r="H74" s="2"/>
+      <c r="J74" t="s">
+        <v>34</v>
+      </c>
+      <c r="K74" t="s">
+        <v>52</v>
+      </c>
+      <c r="L74" t="s">
+        <v>135</v>
+      </c>
+      <c r="M74" s="2">
+        <v>0</v>
+      </c>
+      <c r="N74" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="O74" t="s">
+        <v>251</v>
+      </c>
+      <c r="P74" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>251</v>
+      </c>
+      <c r="S74" s="2"/>
+    </row>
+    <row r="75" spans="2:19">
+      <c r="B75" t="s">
+        <v>365</v>
+      </c>
+      <c r="C75" t="s">
+        <v>366</v>
+      </c>
+      <c r="D75" t="s">
+        <v>21</v>
+      </c>
+      <c r="G75" t="s">
+        <v>367</v>
+      </c>
+      <c r="H75" s="2"/>
+      <c r="J75" t="s">
+        <v>34</v>
+      </c>
+      <c r="K75" t="s">
+        <v>159</v>
+      </c>
+      <c r="L75" t="s">
+        <v>368</v>
+      </c>
+      <c r="M75" s="2">
+        <v>0</v>
+      </c>
+      <c r="N75" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="O75" t="s">
+        <v>251</v>
+      </c>
+      <c r="P75" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>251</v>
+      </c>
+      <c r="S75" s="2"/>
+    </row>
+    <row r="76" spans="2:19">
+      <c r="B76" t="s">
+        <v>370</v>
+      </c>
+      <c r="C76" t="s">
+        <v>371</v>
+      </c>
+      <c r="D76" t="s">
+        <v>21</v>
+      </c>
+      <c r="G76" t="s">
+        <v>372</v>
+      </c>
+      <c r="H76" s="2"/>
+      <c r="J76" t="s">
+        <v>78</v>
+      </c>
+      <c r="K76" t="s">
+        <v>52</v>
+      </c>
+      <c r="L76" t="s">
+        <v>373</v>
+      </c>
+      <c r="M76" s="2">
+        <v>0</v>
+      </c>
+      <c r="N76" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="O76" t="s">
+        <v>251</v>
+      </c>
+      <c r="P76" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>251</v>
+      </c>
+      <c r="S76" s="2"/>
+    </row>
+    <row r="77" spans="2:19">
+      <c r="B77" t="s">
+        <v>375</v>
+      </c>
+      <c r="C77" t="s">
+        <v>376</v>
+      </c>
+      <c r="D77" t="s">
+        <v>21</v>
+      </c>
+      <c r="G77" t="s">
+        <v>377</v>
+      </c>
+      <c r="H77" s="2"/>
+      <c r="J77" t="s">
+        <v>34</v>
+      </c>
+      <c r="K77" t="s">
+        <v>24</v>
+      </c>
+      <c r="L77" t="s">
+        <v>208</v>
+      </c>
+      <c r="M77" s="2">
+        <v>0</v>
+      </c>
+      <c r="N77" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O77" t="s">
+        <v>356</v>
+      </c>
+      <c r="P77" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>357</v>
+      </c>
+      <c r="S77" s="2"/>
+    </row>
+    <row r="78" spans="2:19">
+      <c r="B78" t="s">
+        <v>378</v>
+      </c>
+      <c r="C78" t="s">
+        <v>379</v>
+      </c>
+      <c r="D78" t="s">
+        <v>21</v>
+      </c>
+      <c r="G78" t="s">
+        <v>380</v>
+      </c>
+      <c r="H78" s="2"/>
+      <c r="J78" t="s">
+        <v>78</v>
+      </c>
+      <c r="K78" t="s">
+        <v>159</v>
+      </c>
+      <c r="L78" t="s">
+        <v>129</v>
+      </c>
+      <c r="M78" s="2">
+        <v>0</v>
+      </c>
+      <c r="N78" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O78" t="s">
+        <v>381</v>
+      </c>
+      <c r="P78" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>381</v>
+      </c>
+      <c r="S78" s="2"/>
+    </row>
+    <row r="79" spans="2:19">
+      <c r="B79" t="s">
+        <v>382</v>
+      </c>
+      <c r="C79" t="s">
+        <v>383</v>
+      </c>
+      <c r="D79" t="s">
+        <v>113</v>
+      </c>
+      <c r="E79">
+        <v>10952</v>
+      </c>
+      <c r="F79">
+        <v>495</v>
+      </c>
+      <c r="G79" t="s">
+        <v>315</v>
+      </c>
+      <c r="H79" s="2">
+        <v>2.75</v>
+      </c>
+      <c r="I79" t="s">
         <v>107</v>
       </c>
-      <c r="I70" t="s">
+      <c r="J79" t="s">
+        <v>51</v>
+      </c>
+      <c r="K79" t="s">
+        <v>52</v>
+      </c>
+      <c r="L79" t="s">
+        <v>241</v>
+      </c>
+      <c r="M79" s="2">
+        <v>12</v>
+      </c>
+      <c r="N79" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O79" t="s">
+        <v>54</v>
+      </c>
+      <c r="P79" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>54</v>
+      </c>
+      <c r="R79" t="s">
+        <v>138</v>
+      </c>
+      <c r="S79" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="80" spans="2:19">
+      <c r="B80" t="s">
+        <v>385</v>
+      </c>
+      <c r="C80" t="s">
+        <v>386</v>
+      </c>
+      <c r="D80" t="s">
+        <v>21</v>
+      </c>
+      <c r="G80" t="s">
+        <v>387</v>
+      </c>
+      <c r="H80" s="2"/>
+      <c r="J80" t="s">
         <v>34</v>
       </c>
-      <c r="J70" t="s">
-        <v>159</v>
-      </c>
-      <c r="K70" t="s">
-        <v>25</v>
-      </c>
-      <c r="L70" t="s">
-        <v>338</v>
-      </c>
-      <c r="M70" t="s">
-        <v>61</v>
-      </c>
-      <c r="N70" t="s">
-        <v>338</v>
-      </c>
-      <c r="P70" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="Q70" s="2">
-        <v>0</v>
-      </c>
-      <c r="R70" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="71" spans="2:18">
-      <c r="B71" t="s">
-        <v>349</v>
-      </c>
-      <c r="C71" t="s">
-        <v>350</v>
-      </c>
-      <c r="D71" t="s">
-        <v>21</v>
-      </c>
-      <c r="G71" t="s">
-        <v>351</v>
-      </c>
-      <c r="I71" t="s">
-        <v>34</v>
-      </c>
-      <c r="J71" t="s">
-        <v>35</v>
-      </c>
-      <c r="K71" t="s">
+      <c r="K80" t="s">
+        <v>24</v>
+      </c>
+      <c r="L80" t="s">
         <v>95</v>
       </c>
-      <c r="L71" t="s">
-        <v>35</v>
-      </c>
-      <c r="M71" t="s">
-        <v>35</v>
-      </c>
-      <c r="N71" t="s">
-        <v>35</v>
-      </c>
-      <c r="P71" s="2"/>
-      <c r="Q71" s="2">
-        <v>0</v>
-      </c>
-      <c r="R71" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="72" spans="2:18">
-      <c r="B72" t="s">
-        <v>352</v>
-      </c>
-      <c r="C72" t="s">
-        <v>353</v>
-      </c>
-      <c r="D72" t="s">
-        <v>21</v>
-      </c>
-      <c r="G72" t="s">
-        <v>354</v>
-      </c>
-      <c r="I72" t="s">
-        <v>34</v>
-      </c>
-      <c r="J72" t="s">
-        <v>24</v>
-      </c>
-      <c r="K72" t="s">
-        <v>40</v>
-      </c>
-      <c r="L72" t="s">
-        <v>355</v>
-      </c>
-      <c r="M72" t="s">
-        <v>27</v>
-      </c>
-      <c r="N72" t="s">
-        <v>356</v>
-      </c>
-      <c r="P72" s="2"/>
-      <c r="Q72" s="2">
-        <v>0</v>
-      </c>
-      <c r="R72" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="73" spans="2:18">
-      <c r="B73" t="s">
-        <v>357</v>
-      </c>
-      <c r="C73" t="s">
-        <v>358</v>
-      </c>
-      <c r="D73" t="s">
-        <v>21</v>
-      </c>
-      <c r="G73" t="s">
-        <v>359</v>
-      </c>
-      <c r="I73" t="s">
-        <v>34</v>
-      </c>
-      <c r="J73" t="s">
-        <v>159</v>
-      </c>
-      <c r="K73" t="s">
-        <v>25</v>
-      </c>
-      <c r="L73" t="s">
-        <v>360</v>
-      </c>
-      <c r="M73" t="s">
-        <v>61</v>
-      </c>
-      <c r="N73" t="s">
-        <v>360</v>
-      </c>
-      <c r="P73" s="2"/>
-      <c r="Q73" s="2">
-        <v>0</v>
-      </c>
-      <c r="R73" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="74" spans="2:18">
-      <c r="B74" t="s">
-        <v>361</v>
-      </c>
-      <c r="C74" t="s">
-        <v>362</v>
-      </c>
-      <c r="D74" t="s">
-        <v>21</v>
-      </c>
-      <c r="G74" t="s">
-        <v>363</v>
-      </c>
-      <c r="I74" t="s">
-        <v>34</v>
-      </c>
-      <c r="J74" t="s">
-        <v>52</v>
-      </c>
-      <c r="K74" t="s">
-        <v>135</v>
-      </c>
-      <c r="L74" t="s">
-        <v>250</v>
-      </c>
-      <c r="M74" t="s">
-        <v>61</v>
-      </c>
-      <c r="N74" t="s">
-        <v>250</v>
-      </c>
-      <c r="P74" s="2"/>
-      <c r="Q74" s="2">
-        <v>0</v>
-      </c>
-      <c r="R74" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="75" spans="2:18">
-      <c r="B75" t="s">
-        <v>364</v>
-      </c>
-      <c r="C75" t="s">
-        <v>365</v>
-      </c>
-      <c r="D75" t="s">
-        <v>21</v>
-      </c>
-      <c r="G75" t="s">
-        <v>366</v>
-      </c>
-      <c r="I75" t="s">
-        <v>34</v>
-      </c>
-      <c r="J75" t="s">
-        <v>159</v>
-      </c>
-      <c r="K75" t="s">
-        <v>367</v>
-      </c>
-      <c r="L75" t="s">
-        <v>250</v>
-      </c>
-      <c r="M75" t="s">
-        <v>61</v>
-      </c>
-      <c r="N75" t="s">
-        <v>250</v>
-      </c>
-      <c r="P75" s="2"/>
-      <c r="Q75" s="2">
-        <v>0</v>
-      </c>
-      <c r="R75" s="2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="76" spans="2:18">
-      <c r="B76" t="s">
-        <v>369</v>
-      </c>
-      <c r="C76" t="s">
-        <v>370</v>
-      </c>
-      <c r="D76" t="s">
-        <v>21</v>
-      </c>
-      <c r="G76" t="s">
-        <v>371</v>
-      </c>
-      <c r="I76" t="s">
-        <v>78</v>
-      </c>
-      <c r="J76" t="s">
-        <v>52</v>
-      </c>
-      <c r="K76" t="s">
-        <v>372</v>
-      </c>
-      <c r="L76" t="s">
-        <v>250</v>
-      </c>
-      <c r="M76" t="s">
-        <v>61</v>
-      </c>
-      <c r="N76" t="s">
-        <v>250</v>
-      </c>
-      <c r="P76" s="2"/>
-      <c r="Q76" s="2">
-        <v>0</v>
-      </c>
-      <c r="R76" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="77" spans="2:18">
-      <c r="B77" t="s">
-        <v>374</v>
-      </c>
-      <c r="C77" t="s">
-        <v>375</v>
-      </c>
-      <c r="D77" t="s">
-        <v>21</v>
-      </c>
-      <c r="G77" t="s">
-        <v>376</v>
-      </c>
-      <c r="I77" t="s">
-        <v>34</v>
-      </c>
-      <c r="J77" t="s">
-        <v>24</v>
-      </c>
-      <c r="K77" t="s">
-        <v>208</v>
-      </c>
-      <c r="L77" t="s">
-        <v>355</v>
-      </c>
-      <c r="M77" t="s">
-        <v>27</v>
-      </c>
-      <c r="N77" t="s">
-        <v>356</v>
-      </c>
-      <c r="P77" s="2"/>
-      <c r="Q77" s="2">
-        <v>0</v>
-      </c>
-      <c r="R77" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="78" spans="2:18">
-      <c r="B78" t="s">
-        <v>377</v>
-      </c>
-      <c r="C78" t="s">
-        <v>378</v>
-      </c>
-      <c r="D78" t="s">
-        <v>21</v>
-      </c>
-      <c r="G78" t="s">
-        <v>379</v>
-      </c>
-      <c r="I78" t="s">
-        <v>78</v>
-      </c>
-      <c r="J78" t="s">
-        <v>159</v>
-      </c>
-      <c r="K78" t="s">
-        <v>129</v>
-      </c>
-      <c r="L78" t="s">
-        <v>380</v>
-      </c>
-      <c r="M78" t="s">
-        <v>61</v>
-      </c>
-      <c r="N78" t="s">
-        <v>380</v>
-      </c>
-      <c r="P78" s="2"/>
-      <c r="Q78" s="2">
-        <v>0</v>
-      </c>
-      <c r="R78" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="79" spans="2:18">
-      <c r="B79" t="s">
-        <v>381</v>
-      </c>
-      <c r="C79" t="s">
-        <v>382</v>
-      </c>
-      <c r="D79" t="s">
-        <v>105</v>
-      </c>
-      <c r="E79">
-        <v>10136</v>
-      </c>
-      <c r="F79">
-        <v>458</v>
-      </c>
-      <c r="G79" t="s">
-        <v>313</v>
-      </c>
-      <c r="H79" t="s">
-        <v>107</v>
-      </c>
-      <c r="I79" t="s">
-        <v>51</v>
-      </c>
-      <c r="J79" t="s">
-        <v>52</v>
-      </c>
-      <c r="K79" t="s">
-        <v>240</v>
-      </c>
-      <c r="L79" t="s">
-        <v>54</v>
-      </c>
-      <c r="M79" t="s">
-        <v>61</v>
-      </c>
-      <c r="N79" t="s">
-        <v>54</v>
-      </c>
-      <c r="P79" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="Q79" s="2">
-        <v>0</v>
-      </c>
-      <c r="R79" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="80" spans="2:18">
-      <c r="B80" t="s">
-        <v>384</v>
-      </c>
-      <c r="C80" t="s">
-        <v>385</v>
-      </c>
-      <c r="D80" t="s">
-        <v>21</v>
-      </c>
-      <c r="G80" t="s">
-        <v>386</v>
-      </c>
-      <c r="I80" t="s">
-        <v>34</v>
-      </c>
-      <c r="J80" t="s">
-        <v>24</v>
-      </c>
-      <c r="K80" t="s">
-        <v>95</v>
-      </c>
-      <c r="L80" t="s">
-        <v>387</v>
-      </c>
-      <c r="M80" t="s">
-        <v>27</v>
-      </c>
-      <c r="N80" t="s">
+      <c r="M80" s="2">
+        <v>0</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O80" t="s">
         <v>388</v>
       </c>
-      <c r="P80" s="2"/>
-      <c r="Q80" s="2">
-        <v>0</v>
-      </c>
-      <c r="R80" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="81" spans="2:18">
+      <c r="P80" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>389</v>
+      </c>
+      <c r="S80" s="2"/>
+    </row>
+    <row r="81" spans="2:19">
       <c r="B81" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C81" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D81" t="s">
         <v>113</v>
       </c>
       <c r="E81">
-        <v>9568</v>
+        <v>10952</v>
       </c>
       <c r="F81">
-        <v>417</v>
+        <v>595</v>
       </c>
       <c r="G81" t="s">
-        <v>391</v>
-      </c>
-      <c r="H81" t="s">
+        <v>392</v>
+      </c>
+      <c r="H81" s="2">
+        <v>2.75</v>
+      </c>
+      <c r="I81" t="s">
         <v>107</v>
       </c>
-      <c r="I81" t="s">
+      <c r="J81" t="s">
         <v>34</v>
       </c>
-      <c r="J81" t="s">
+      <c r="K81" t="s">
         <v>159</v>
       </c>
-      <c r="K81" t="s">
+      <c r="L81" t="s">
         <v>208</v>
       </c>
-      <c r="L81" t="s">
-        <v>392</v>
-      </c>
-      <c r="M81" t="s">
-        <v>61</v>
-      </c>
-      <c r="N81" t="s">
-        <v>392</v>
+      <c r="M81" s="2">
+        <v>8</v>
+      </c>
+      <c r="N81" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="O81" t="s">
-        <v>116</v>
-      </c>
-      <c r="P81" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="Q81" s="2">
-        <v>8</v>
-      </c>
-      <c r="R81" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="82" spans="2:18">
+      <c r="P81" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>393</v>
+      </c>
+      <c r="R81" t="s">
+        <v>138</v>
+      </c>
+      <c r="S81" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="82" spans="2:19">
       <c r="B82" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C82" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D82" t="s">
         <v>105</v>
@@ -5235,123 +5341,128 @@
         <v>515</v>
       </c>
       <c r="G82" t="s">
-        <v>396</v>
-      </c>
-      <c r="H82" t="s">
+        <v>397</v>
+      </c>
+      <c r="H82" s="2">
+        <v>2.67</v>
+      </c>
+      <c r="I82" t="s">
         <v>107</v>
       </c>
-      <c r="I82" t="s">
+      <c r="J82" t="s">
         <v>34</v>
       </c>
-      <c r="J82" t="s">
+      <c r="K82" t="s">
         <v>52</v>
       </c>
-      <c r="K82" t="s">
+      <c r="L82" t="s">
         <v>25</v>
       </c>
-      <c r="L82" t="s">
-        <v>397</v>
-      </c>
-      <c r="M82" t="s">
-        <v>61</v>
-      </c>
-      <c r="N82" t="s">
-        <v>397</v>
-      </c>
-      <c r="P82" s="2" t="s">
+      <c r="M82" s="2">
+        <v>0</v>
+      </c>
+      <c r="N82" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="O82" t="s">
         <v>398</v>
       </c>
-      <c r="Q82" s="2">
-        <v>0</v>
-      </c>
-      <c r="R82" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="83" spans="2:18">
+      <c r="P82" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>398</v>
+      </c>
+      <c r="S82" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="83" spans="2:19">
       <c r="B83" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C83" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D83" t="s">
         <v>21</v>
       </c>
       <c r="G83" t="s">
-        <v>401</v>
-      </c>
-      <c r="I83" t="s">
+        <v>402</v>
+      </c>
+      <c r="H83" s="2"/>
+      <c r="J83" t="s">
         <v>34</v>
       </c>
-      <c r="J83" t="s">
+      <c r="K83" t="s">
         <v>52</v>
       </c>
-      <c r="K83" t="s">
+      <c r="L83" t="s">
         <v>40</v>
       </c>
-      <c r="L83" t="s">
-        <v>259</v>
-      </c>
-      <c r="M83" t="s">
-        <v>61</v>
-      </c>
-      <c r="N83" t="s">
-        <v>259</v>
-      </c>
-      <c r="P83" s="2"/>
-      <c r="Q83" s="2">
-        <v>0</v>
-      </c>
-      <c r="R83" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="84" spans="2:18">
+      <c r="M83" s="2">
+        <v>0</v>
+      </c>
+      <c r="N83" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O83" t="s">
+        <v>260</v>
+      </c>
+      <c r="P83" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>260</v>
+      </c>
+      <c r="S83" s="2"/>
+    </row>
+    <row r="84" spans="2:19">
       <c r="B84" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C84" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D84" t="s">
         <v>21</v>
       </c>
       <c r="G84" t="s">
-        <v>404</v>
-      </c>
-      <c r="I84" t="s">
+        <v>405</v>
+      </c>
+      <c r="H84" s="2"/>
+      <c r="J84" t="s">
         <v>78</v>
       </c>
-      <c r="J84" t="s">
+      <c r="K84" t="s">
         <v>159</v>
       </c>
-      <c r="K84" t="s">
+      <c r="L84" t="s">
         <v>95</v>
       </c>
-      <c r="L84" t="s">
-        <v>405</v>
-      </c>
-      <c r="M84" t="s">
+      <c r="M84" s="2">
+        <v>0</v>
+      </c>
+      <c r="N84" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O84" t="s">
+        <v>406</v>
+      </c>
+      <c r="P84" t="s">
         <v>55</v>
       </c>
-      <c r="N84" t="s">
-        <v>405</v>
-      </c>
-      <c r="P84" s="2"/>
-      <c r="Q84" s="2">
-        <v>0</v>
-      </c>
-      <c r="R84" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="85" spans="2:18">
+      <c r="Q84" t="s">
+        <v>406</v>
+      </c>
+      <c r="S84" s="2"/>
+    </row>
+    <row r="85" spans="2:19">
       <c r="B85" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C85" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D85" t="s">
         <v>105</v>
@@ -5363,435 +5474,448 @@
         <v>518</v>
       </c>
       <c r="G85" t="s">
-        <v>408</v>
-      </c>
-      <c r="H85" t="s">
+        <v>409</v>
+      </c>
+      <c r="H85" s="2">
+        <v>2.54</v>
+      </c>
+      <c r="I85" t="s">
         <v>107</v>
       </c>
-      <c r="I85" t="s">
+      <c r="J85" t="s">
         <v>51</v>
       </c>
-      <c r="J85" t="s">
+      <c r="K85" t="s">
         <v>52</v>
       </c>
-      <c r="K85" t="s">
+      <c r="L85" t="s">
         <v>129</v>
       </c>
-      <c r="L85" t="s">
+      <c r="M85" s="2">
+        <v>0</v>
+      </c>
+      <c r="N85" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O85" t="s">
         <v>74</v>
       </c>
-      <c r="M85" t="s">
-        <v>61</v>
-      </c>
-      <c r="N85" t="s">
+      <c r="P85" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q85" t="s">
         <v>74</v>
       </c>
-      <c r="P85" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="Q85" s="2">
-        <v>0</v>
-      </c>
-      <c r="R85" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="86" spans="2:18">
+      <c r="S85" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="86" spans="2:19">
       <c r="B86" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C86" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D86" t="s">
         <v>21</v>
       </c>
       <c r="G86" t="s">
-        <v>412</v>
-      </c>
-      <c r="I86" t="s">
+        <v>413</v>
+      </c>
+      <c r="H86" s="2"/>
+      <c r="J86" t="s">
         <v>34</v>
       </c>
-      <c r="J86" t="s">
+      <c r="K86" t="s">
         <v>24</v>
       </c>
-      <c r="K86" t="s">
+      <c r="L86" t="s">
         <v>40</v>
       </c>
-      <c r="L86" t="s">
-        <v>387</v>
-      </c>
-      <c r="M86" t="s">
-        <v>27</v>
-      </c>
-      <c r="N86" t="s">
+      <c r="M86" s="2">
+        <v>0</v>
+      </c>
+      <c r="N86" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O86" t="s">
         <v>388</v>
       </c>
-      <c r="P86" s="2"/>
-      <c r="Q86" s="2">
-        <v>0</v>
-      </c>
-      <c r="R86" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="87" spans="2:18">
+      <c r="P86" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>389</v>
+      </c>
+      <c r="S86" s="2"/>
+    </row>
+    <row r="87" spans="2:19">
       <c r="B87" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C87" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D87" t="s">
         <v>21</v>
       </c>
       <c r="G87" t="s">
-        <v>415</v>
-      </c>
-      <c r="I87" t="s">
+        <v>416</v>
+      </c>
+      <c r="H87" s="2"/>
+      <c r="J87" t="s">
         <v>78</v>
       </c>
-      <c r="J87" t="s">
+      <c r="K87" t="s">
         <v>159</v>
       </c>
-      <c r="K87" t="s">
+      <c r="L87" t="s">
         <v>197</v>
       </c>
-      <c r="L87" t="s">
+      <c r="M87" s="2">
+        <v>0</v>
+      </c>
+      <c r="N87" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O87" t="s">
         <v>130</v>
       </c>
-      <c r="M87" t="s">
-        <v>61</v>
-      </c>
-      <c r="N87" t="s">
+      <c r="P87" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q87" t="s">
         <v>130</v>
       </c>
-      <c r="P87" s="2"/>
-      <c r="Q87" s="2">
-        <v>0</v>
-      </c>
-      <c r="R87" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="88" spans="2:18">
+      <c r="S87" s="2"/>
+    </row>
+    <row r="88" spans="2:19">
       <c r="B88" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C88" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D88" t="s">
         <v>21</v>
       </c>
       <c r="G88" t="s">
-        <v>418</v>
-      </c>
-      <c r="I88" t="s">
+        <v>419</v>
+      </c>
+      <c r="H88" s="2"/>
+      <c r="J88" t="s">
         <v>78</v>
       </c>
-      <c r="J88" t="s">
+      <c r="K88" t="s">
         <v>159</v>
       </c>
-      <c r="K88" t="s">
-        <v>419</v>
-      </c>
       <c r="L88" t="s">
+        <v>420</v>
+      </c>
+      <c r="M88" s="2">
+        <v>0</v>
+      </c>
+      <c r="N88" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O88" t="s">
         <v>130</v>
       </c>
-      <c r="M88" t="s">
-        <v>61</v>
-      </c>
-      <c r="N88" t="s">
+      <c r="P88" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q88" t="s">
         <v>130</v>
       </c>
-      <c r="P88" s="2"/>
-      <c r="Q88" s="2">
-        <v>0</v>
-      </c>
-      <c r="R88" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="89" spans="2:18">
+      <c r="S88" s="2"/>
+    </row>
+    <row r="89" spans="2:19">
       <c r="B89" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C89" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D89" t="s">
         <v>21</v>
       </c>
       <c r="G89" t="s">
-        <v>310</v>
-      </c>
-      <c r="I89" t="s">
+        <v>312</v>
+      </c>
+      <c r="H89" s="2"/>
+      <c r="J89" t="s">
         <v>51</v>
       </c>
-      <c r="J89" t="s">
+      <c r="K89" t="s">
         <v>52</v>
       </c>
-      <c r="K89" t="s">
+      <c r="L89" t="s">
         <v>115</v>
       </c>
-      <c r="L89" t="s">
+      <c r="M89" s="2">
+        <v>0</v>
+      </c>
+      <c r="N89" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O89" t="s">
         <v>74</v>
       </c>
-      <c r="M89" t="s">
+      <c r="P89" t="s">
         <v>55</v>
       </c>
-      <c r="N89" t="s">
+      <c r="Q89" t="s">
         <v>74</v>
       </c>
-      <c r="P89" s="2"/>
-      <c r="Q89" s="2">
-        <v>0</v>
-      </c>
-      <c r="R89" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="90" spans="2:18">
+      <c r="S89" s="2"/>
+    </row>
+    <row r="90" spans="2:19">
       <c r="B90" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C90" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D90" t="s">
         <v>21</v>
       </c>
       <c r="G90" t="s">
-        <v>424</v>
-      </c>
-      <c r="I90" t="s">
+        <v>425</v>
+      </c>
+      <c r="H90" s="2"/>
+      <c r="J90" t="s">
         <v>51</v>
       </c>
-      <c r="J90" t="s">
+      <c r="K90" t="s">
         <v>52</v>
       </c>
-      <c r="K90" t="s">
-        <v>425</v>
-      </c>
       <c r="L90" t="s">
-        <v>143</v>
-      </c>
-      <c r="M90" t="s">
+        <v>426</v>
+      </c>
+      <c r="M90" s="2">
+        <v>0</v>
+      </c>
+      <c r="N90" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O90" t="s">
+        <v>144</v>
+      </c>
+      <c r="P90" t="s">
         <v>55</v>
       </c>
-      <c r="N90" t="s">
-        <v>143</v>
-      </c>
-      <c r="P90" s="2"/>
-      <c r="Q90" s="2">
-        <v>0</v>
-      </c>
-      <c r="R90" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="91" spans="2:18">
+      <c r="Q90" t="s">
+        <v>144</v>
+      </c>
+      <c r="S90" s="2"/>
+    </row>
+    <row r="91" spans="2:19">
       <c r="B91" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C91" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D91" t="s">
         <v>21</v>
       </c>
       <c r="G91" t="s">
-        <v>428</v>
-      </c>
-      <c r="I91" t="s">
+        <v>429</v>
+      </c>
+      <c r="H91" s="2"/>
+      <c r="J91" t="s">
         <v>78</v>
       </c>
-      <c r="J91" t="s">
+      <c r="K91" t="s">
         <v>159</v>
       </c>
-      <c r="K91" t="s">
-        <v>303</v>
-      </c>
       <c r="L91" t="s">
-        <v>429</v>
-      </c>
-      <c r="M91" t="s">
-        <v>61</v>
-      </c>
-      <c r="N91" t="s">
-        <v>429</v>
-      </c>
-      <c r="P91" s="2"/>
-      <c r="Q91" s="2">
-        <v>0</v>
-      </c>
-      <c r="R91" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="M91" s="2">
+        <v>0</v>
+      </c>
+      <c r="N91" s="2" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="92" spans="2:18">
+      <c r="O91" t="s">
+        <v>431</v>
+      </c>
+      <c r="P91" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>431</v>
+      </c>
+      <c r="S91" s="2"/>
+    </row>
+    <row r="92" spans="2:19">
       <c r="B92" t="s">
+        <v>432</v>
+      </c>
+      <c r="C92" t="s">
+        <v>433</v>
+      </c>
+      <c r="D92" t="s">
+        <v>21</v>
+      </c>
+      <c r="G92" t="s">
+        <v>434</v>
+      </c>
+      <c r="H92" s="2"/>
+      <c r="J92" t="s">
+        <v>78</v>
+      </c>
+      <c r="K92" t="s">
+        <v>159</v>
+      </c>
+      <c r="L92" t="s">
+        <v>270</v>
+      </c>
+      <c r="M92" s="2">
+        <v>0</v>
+      </c>
+      <c r="N92" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="O92" t="s">
         <v>431</v>
       </c>
-      <c r="C92" t="s">
-        <v>432</v>
-      </c>
-      <c r="D92" t="s">
-        <v>21</v>
-      </c>
-      <c r="G92" t="s">
-        <v>433</v>
-      </c>
-      <c r="I92" t="s">
+      <c r="P92" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>431</v>
+      </c>
+      <c r="S92" s="2"/>
+    </row>
+    <row r="93" spans="2:19">
+      <c r="B93" t="s">
+        <v>435</v>
+      </c>
+      <c r="C93" t="s">
+        <v>436</v>
+      </c>
+      <c r="D93" t="s">
+        <v>21</v>
+      </c>
+      <c r="G93" t="s">
+        <v>437</v>
+      </c>
+      <c r="H93" s="2"/>
+      <c r="J93" t="s">
         <v>78</v>
       </c>
-      <c r="J92" t="s">
+      <c r="K93" t="s">
         <v>159</v>
       </c>
-      <c r="K92" t="s">
-        <v>268</v>
-      </c>
-      <c r="L92" t="s">
-        <v>429</v>
-      </c>
-      <c r="M92" t="s">
-        <v>61</v>
-      </c>
-      <c r="N92" t="s">
-        <v>429</v>
-      </c>
-      <c r="P92" s="2"/>
-      <c r="Q92" s="2">
-        <v>0</v>
-      </c>
-      <c r="R92" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="93" spans="2:18">
-      <c r="B93" t="s">
-        <v>434</v>
-      </c>
-      <c r="C93" t="s">
-        <v>435</v>
-      </c>
-      <c r="D93" t="s">
-        <v>21</v>
-      </c>
-      <c r="G93" t="s">
-        <v>436</v>
-      </c>
-      <c r="I93" t="s">
+      <c r="L93" t="s">
+        <v>69</v>
+      </c>
+      <c r="M93" s="2">
+        <v>0</v>
+      </c>
+      <c r="N93" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O93" t="s">
+        <v>431</v>
+      </c>
+      <c r="P93" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>431</v>
+      </c>
+      <c r="S93" s="2"/>
+    </row>
+    <row r="94" spans="2:19">
+      <c r="B94" t="s">
+        <v>438</v>
+      </c>
+      <c r="C94" t="s">
+        <v>439</v>
+      </c>
+      <c r="D94" t="s">
+        <v>21</v>
+      </c>
+      <c r="G94" t="s">
+        <v>440</v>
+      </c>
+      <c r="H94" s="2"/>
+      <c r="J94" t="s">
         <v>78</v>
       </c>
-      <c r="J93" t="s">
+      <c r="K94" t="s">
         <v>159</v>
       </c>
-      <c r="K93" t="s">
-        <v>69</v>
-      </c>
-      <c r="L93" t="s">
-        <v>429</v>
-      </c>
-      <c r="M93" t="s">
-        <v>61</v>
-      </c>
-      <c r="N93" t="s">
-        <v>429</v>
-      </c>
-      <c r="P93" s="2"/>
-      <c r="Q93" s="2">
-        <v>0</v>
-      </c>
-      <c r="R93" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="94" spans="2:18">
-      <c r="B94" t="s">
-        <v>437</v>
-      </c>
-      <c r="C94" t="s">
-        <v>438</v>
-      </c>
-      <c r="D94" t="s">
-        <v>21</v>
-      </c>
-      <c r="G94" t="s">
-        <v>439</v>
-      </c>
-      <c r="I94" t="s">
-        <v>78</v>
-      </c>
-      <c r="J94" t="s">
-        <v>159</v>
-      </c>
-      <c r="K94" t="s">
+      <c r="L94" t="s">
         <v>36</v>
       </c>
-      <c r="L94" t="s">
-        <v>429</v>
-      </c>
-      <c r="M94" t="s">
-        <v>61</v>
-      </c>
-      <c r="N94" t="s">
-        <v>429</v>
-      </c>
-      <c r="P94" s="2"/>
-      <c r="Q94" s="2">
-        <v>0</v>
-      </c>
-      <c r="R94" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="95" spans="2:18">
+      <c r="M94" s="2">
+        <v>0</v>
+      </c>
+      <c r="N94" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O94" t="s">
+        <v>431</v>
+      </c>
+      <c r="P94" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>431</v>
+      </c>
+      <c r="S94" s="2"/>
+    </row>
+    <row r="95" spans="2:19">
       <c r="B95" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C95" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D95" t="s">
         <v>21</v>
       </c>
       <c r="G95" t="s">
-        <v>442</v>
-      </c>
-      <c r="I95" t="s">
+        <v>443</v>
+      </c>
+      <c r="H95" s="2"/>
+      <c r="J95" t="s">
         <v>51</v>
       </c>
-      <c r="J95" t="s">
+      <c r="K95" t="s">
         <v>52</v>
       </c>
-      <c r="K95" t="s">
+      <c r="L95" t="s">
         <v>46</v>
       </c>
-      <c r="L95" t="s">
-        <v>443</v>
-      </c>
-      <c r="M95" t="s">
-        <v>61</v>
-      </c>
-      <c r="N95" t="s">
-        <v>443</v>
-      </c>
-      <c r="P95" s="2"/>
-      <c r="Q95" s="2">
-        <v>0</v>
-      </c>
-      <c r="R95" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="96" spans="2:18">
+      <c r="M95" s="2">
+        <v>0</v>
+      </c>
+      <c r="N95" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O95" t="s">
+        <v>444</v>
+      </c>
+      <c r="P95" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>444</v>
+      </c>
+      <c r="S95" s="2"/>
+    </row>
+    <row r="96" spans="2:19">
       <c r="B96" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C96" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D96" t="s">
         <v>113</v>
@@ -5803,101 +5927,107 @@
         <v>495</v>
       </c>
       <c r="G96" t="s">
-        <v>446</v>
-      </c>
-      <c r="H96" t="s">
+        <v>447</v>
+      </c>
+      <c r="H96" s="2">
+        <v>2.75</v>
+      </c>
+      <c r="I96" t="s">
         <v>107</v>
       </c>
-      <c r="I96" t="s">
+      <c r="J96" t="s">
         <v>78</v>
       </c>
-      <c r="J96" t="s">
+      <c r="K96" t="s">
         <v>159</v>
       </c>
-      <c r="K96" t="s">
+      <c r="L96" t="s">
         <v>222</v>
       </c>
-      <c r="L96" t="s">
-        <v>429</v>
-      </c>
-      <c r="M96" t="s">
-        <v>61</v>
-      </c>
-      <c r="N96" t="s">
-        <v>429</v>
+      <c r="M96" s="2">
+        <v>3</v>
+      </c>
+      <c r="N96" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="O96" t="s">
-        <v>447</v>
-      </c>
-      <c r="P96" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="P96" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>431</v>
+      </c>
+      <c r="R96" t="s">
         <v>448</v>
       </c>
-      <c r="Q96" s="2">
-        <v>3</v>
-      </c>
-      <c r="R96" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="97" spans="2:18">
+      <c r="S96" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="97" spans="2:19">
       <c r="B97" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C97" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D97" t="s">
         <v>113</v>
       </c>
       <c r="E97">
-        <v>10952</v>
+        <v>10207</v>
       </c>
       <c r="F97">
-        <v>142</v>
+        <v>239</v>
       </c>
       <c r="G97" t="s">
-        <v>451</v>
-      </c>
-      <c r="H97" t="s">
+        <v>452</v>
+      </c>
+      <c r="H97" s="2">
+        <v>2.86</v>
+      </c>
+      <c r="I97" t="s">
         <v>107</v>
       </c>
-      <c r="I97" t="s">
+      <c r="J97" t="s">
         <v>78</v>
       </c>
-      <c r="J97" t="s">
+      <c r="K97" t="s">
         <v>159</v>
       </c>
-      <c r="K97" t="s">
+      <c r="L97" t="s">
         <v>25</v>
       </c>
-      <c r="L97" t="s">
-        <v>452</v>
-      </c>
-      <c r="M97" t="s">
-        <v>61</v>
-      </c>
-      <c r="N97" t="s">
-        <v>452</v>
+      <c r="M97" s="2">
+        <v>12</v>
+      </c>
+      <c r="N97" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="O97" t="s">
-        <v>137</v>
-      </c>
-      <c r="P97" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="Q97" s="2">
-        <v>12</v>
-      </c>
-      <c r="R97" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="98" spans="2:18">
+      <c r="P97" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>453</v>
+      </c>
+      <c r="R97" t="s">
+        <v>448</v>
+      </c>
+      <c r="S97" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="98" spans="2:19">
       <c r="B98" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C98" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D98" t="s">
         <v>105</v>
@@ -5909,123 +6039,128 @@
         <v>518</v>
       </c>
       <c r="G98" t="s">
-        <v>456</v>
-      </c>
-      <c r="H98" t="s">
+        <v>457</v>
+      </c>
+      <c r="H98" s="2">
+        <v>2.54</v>
+      </c>
+      <c r="I98" t="s">
         <v>107</v>
       </c>
-      <c r="I98" t="s">
+      <c r="J98" t="s">
         <v>51</v>
       </c>
-      <c r="J98" t="s">
+      <c r="K98" t="s">
         <v>52</v>
       </c>
-      <c r="K98" t="s">
+      <c r="L98" t="s">
         <v>129</v>
       </c>
-      <c r="L98" t="s">
+      <c r="M98" s="2">
+        <v>0</v>
+      </c>
+      <c r="N98" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O98" t="s">
         <v>74</v>
       </c>
-      <c r="M98" t="s">
-        <v>61</v>
-      </c>
-      <c r="N98" t="s">
+      <c r="P98" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q98" t="s">
         <v>74</v>
       </c>
-      <c r="P98" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="Q98" s="2">
-        <v>0</v>
-      </c>
-      <c r="R98" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="99" spans="2:18">
+      <c r="S98" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="99" spans="2:19">
       <c r="B99" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C99" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D99" t="s">
         <v>21</v>
       </c>
       <c r="G99" t="s">
-        <v>460</v>
-      </c>
-      <c r="I99" t="s">
+        <v>461</v>
+      </c>
+      <c r="H99" s="2"/>
+      <c r="J99" t="s">
         <v>51</v>
       </c>
-      <c r="J99" t="s">
+      <c r="K99" t="s">
         <v>52</v>
       </c>
-      <c r="K99" t="s">
+      <c r="L99" t="s">
         <v>135</v>
       </c>
-      <c r="L99" t="s">
-        <v>461</v>
-      </c>
-      <c r="M99" t="s">
+      <c r="M99" s="2">
+        <v>0</v>
+      </c>
+      <c r="N99" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O99" t="s">
+        <v>462</v>
+      </c>
+      <c r="P99" t="s">
         <v>55</v>
       </c>
-      <c r="N99" t="s">
-        <v>461</v>
-      </c>
-      <c r="P99" s="2"/>
-      <c r="Q99" s="2">
-        <v>0</v>
-      </c>
-      <c r="R99" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="100" spans="2:18">
+      <c r="Q99" t="s">
+        <v>462</v>
+      </c>
+      <c r="S99" s="2"/>
+    </row>
+    <row r="100" spans="2:19">
       <c r="B100" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C100" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D100" t="s">
         <v>21</v>
       </c>
       <c r="G100" t="s">
-        <v>464</v>
-      </c>
-      <c r="I100" t="s">
+        <v>465</v>
+      </c>
+      <c r="H100" s="2"/>
+      <c r="J100" t="s">
         <v>78</v>
       </c>
-      <c r="J100" t="s">
+      <c r="K100" t="s">
         <v>159</v>
       </c>
-      <c r="K100" t="s">
-        <v>367</v>
-      </c>
       <c r="L100" t="s">
-        <v>465</v>
-      </c>
-      <c r="M100" t="s">
-        <v>61</v>
-      </c>
-      <c r="N100" t="s">
-        <v>465</v>
-      </c>
-      <c r="P100" s="2"/>
-      <c r="Q100" s="2">
-        <v>0</v>
-      </c>
-      <c r="R100" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="M100" s="2">
+        <v>0</v>
+      </c>
+      <c r="N100" s="2" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="101" spans="2:18">
+      <c r="O100" t="s">
+        <v>467</v>
+      </c>
+      <c r="P100" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>467</v>
+      </c>
+      <c r="S100" s="2"/>
+    </row>
+    <row r="101" spans="2:19">
       <c r="B101" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C101" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D101" t="s">
         <v>105</v>
@@ -6037,123 +6172,128 @@
         <v>573</v>
       </c>
       <c r="G101" t="s">
-        <v>469</v>
-      </c>
-      <c r="H101" t="s">
+        <v>470</v>
+      </c>
+      <c r="H101" s="2">
+        <v>2.65</v>
+      </c>
+      <c r="I101" t="s">
         <v>107</v>
       </c>
-      <c r="I101" t="s">
+      <c r="J101" t="s">
         <v>78</v>
       </c>
-      <c r="J101" t="s">
+      <c r="K101" t="s">
         <v>159</v>
       </c>
-      <c r="K101" t="s">
-        <v>240</v>
-      </c>
       <c r="L101" t="s">
-        <v>470</v>
-      </c>
-      <c r="M101" t="s">
-        <v>61</v>
-      </c>
-      <c r="N101" t="s">
-        <v>470</v>
-      </c>
-      <c r="P101" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="M101" s="2">
+        <v>0</v>
+      </c>
+      <c r="N101" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="Q101" s="2">
-        <v>0</v>
-      </c>
-      <c r="R101" s="2" t="s">
+      <c r="O101" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="102" spans="2:18">
+      <c r="P101" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>472</v>
+      </c>
+      <c r="S101" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="102" spans="2:19">
       <c r="B102" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C102" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D102" t="s">
         <v>21</v>
       </c>
       <c r="G102" t="s">
-        <v>475</v>
-      </c>
-      <c r="I102" t="s">
+        <v>476</v>
+      </c>
+      <c r="H102" s="2"/>
+      <c r="J102" t="s">
         <v>51</v>
       </c>
-      <c r="J102" t="s">
+      <c r="K102" t="s">
         <v>52</v>
       </c>
-      <c r="K102" t="s">
+      <c r="L102" t="s">
         <v>53</v>
       </c>
-      <c r="L102" t="s">
+      <c r="M102" s="2">
+        <v>0</v>
+      </c>
+      <c r="N102" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O102" t="s">
         <v>165</v>
       </c>
-      <c r="M102" t="s">
+      <c r="P102" t="s">
         <v>55</v>
       </c>
-      <c r="N102" t="s">
+      <c r="Q102" t="s">
         <v>165</v>
       </c>
-      <c r="P102" s="2"/>
-      <c r="Q102" s="2">
-        <v>0</v>
-      </c>
-      <c r="R102" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="103" spans="2:18">
+      <c r="S102" s="2"/>
+    </row>
+    <row r="103" spans="2:19">
       <c r="B103" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C103" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D103" t="s">
         <v>21</v>
       </c>
       <c r="G103" t="s">
-        <v>478</v>
-      </c>
-      <c r="I103" t="s">
+        <v>479</v>
+      </c>
+      <c r="H103" s="2"/>
+      <c r="J103" t="s">
         <v>78</v>
       </c>
-      <c r="J103" t="s">
+      <c r="K103" t="s">
         <v>159</v>
       </c>
-      <c r="K103" t="s">
-        <v>367</v>
-      </c>
       <c r="L103" t="s">
+        <v>368</v>
+      </c>
+      <c r="M103" s="2">
+        <v>0</v>
+      </c>
+      <c r="N103" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O103" t="s">
         <v>54</v>
       </c>
-      <c r="M103" t="s">
-        <v>61</v>
-      </c>
-      <c r="N103" t="s">
+      <c r="P103" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q103" t="s">
         <v>54</v>
       </c>
-      <c r="P103" s="2"/>
-      <c r="Q103" s="2">
-        <v>0</v>
-      </c>
-      <c r="R103" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="104" spans="2:18">
+      <c r="S103" s="2"/>
+    </row>
+    <row r="104" spans="2:19">
       <c r="B104" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C104" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D104" t="s">
         <v>105</v>
@@ -6165,63 +6305,65 @@
         <v>551</v>
       </c>
       <c r="G104" t="s">
-        <v>481</v>
-      </c>
-      <c r="H104" t="s">
+        <v>482</v>
+      </c>
+      <c r="H104" s="2">
+        <v>2.55</v>
+      </c>
+      <c r="I104" t="s">
         <v>107</v>
       </c>
-      <c r="I104" t="s">
+      <c r="J104" t="s">
         <v>51</v>
       </c>
-      <c r="J104" t="s">
+      <c r="K104" t="s">
         <v>52</v>
       </c>
-      <c r="K104" t="s">
+      <c r="L104" t="s">
         <v>115</v>
       </c>
-      <c r="L104" t="s">
-        <v>143</v>
-      </c>
-      <c r="M104" t="s">
+      <c r="M104" s="2">
+        <v>0</v>
+      </c>
+      <c r="N104" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O104" t="s">
+        <v>144</v>
+      </c>
+      <c r="P104" t="s">
         <v>55</v>
       </c>
-      <c r="N104" t="s">
-        <v>143</v>
-      </c>
-      <c r="P104" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="Q104" s="2">
-        <v>0</v>
-      </c>
-      <c r="R104" s="2" t="s">
-        <v>29</v>
+      <c r="Q104" t="s">
+        <v>144</v>
+      </c>
+      <c r="S104" s="2" t="s">
+        <v>483</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="P18" r:id="rId1"/>
-    <hyperlink ref="P19" r:id="rId2"/>
-    <hyperlink ref="P22" r:id="rId3"/>
-    <hyperlink ref="P23" r:id="rId4"/>
-    <hyperlink ref="P42" r:id="rId5"/>
-    <hyperlink ref="P45" r:id="rId6"/>
-    <hyperlink ref="P48" r:id="rId7"/>
-    <hyperlink ref="P50" r:id="rId8"/>
-    <hyperlink ref="P54" r:id="rId9"/>
-    <hyperlink ref="P62" r:id="rId10"/>
-    <hyperlink ref="P67" r:id="rId11"/>
-    <hyperlink ref="P69" r:id="rId12"/>
-    <hyperlink ref="P70" r:id="rId13"/>
-    <hyperlink ref="P79" r:id="rId14"/>
-    <hyperlink ref="P81" r:id="rId15"/>
-    <hyperlink ref="P82" r:id="rId16"/>
-    <hyperlink ref="P85" r:id="rId17"/>
-    <hyperlink ref="P96" r:id="rId18"/>
-    <hyperlink ref="P97" r:id="rId19"/>
-    <hyperlink ref="P98" r:id="rId20"/>
-    <hyperlink ref="P101" r:id="rId21"/>
-    <hyperlink ref="P104" r:id="rId22"/>
+    <hyperlink ref="S18" r:id="rId1"/>
+    <hyperlink ref="S19" r:id="rId2"/>
+    <hyperlink ref="S22" r:id="rId3"/>
+    <hyperlink ref="S23" r:id="rId4"/>
+    <hyperlink ref="S42" r:id="rId5"/>
+    <hyperlink ref="S45" r:id="rId6"/>
+    <hyperlink ref="S48" r:id="rId7"/>
+    <hyperlink ref="S50" r:id="rId8"/>
+    <hyperlink ref="S54" r:id="rId9"/>
+    <hyperlink ref="S62" r:id="rId10"/>
+    <hyperlink ref="S67" r:id="rId11"/>
+    <hyperlink ref="S69" r:id="rId12"/>
+    <hyperlink ref="S79" r:id="rId13"/>
+    <hyperlink ref="S81" r:id="rId14"/>
+    <hyperlink ref="S82" r:id="rId15"/>
+    <hyperlink ref="S85" r:id="rId16"/>
+    <hyperlink ref="S96" r:id="rId17"/>
+    <hyperlink ref="S97" r:id="rId18"/>
+    <hyperlink ref="S98" r:id="rId19"/>
+    <hyperlink ref="S101" r:id="rId20"/>
+    <hyperlink ref="S104" r:id="rId21"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
